--- a/Container/Data/ProfilesKonstrukte.xlsx
+++ b/Container/Data/ProfilesKonstrukte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7AE99D-E1B1-44C9-B3D0-CE1AD65C0BBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675BA53B-71BD-482F-A670-C6B7126EAC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" firstSheet="1" activeTab="1" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
   <si>
     <t>Lucksave</t>
   </si>
@@ -159,24 +159,12 @@
     <t>AttributName</t>
   </si>
   <si>
-    <t>Erwachter Beinschaden</t>
-  </si>
-  <si>
-    <t>Erwachter Armschaden</t>
-  </si>
-  <si>
-    <t>Erwachter Schwererüstung</t>
-  </si>
-  <si>
     <t>Sheet Name</t>
   </si>
   <si>
     <t>Beschreibung</t>
   </si>
   <si>
-    <t>Erwachter Blind</t>
-  </si>
-  <si>
     <t>Health Head</t>
   </si>
   <si>
@@ -195,111 +183,9 @@
     <t>Health ArmL</t>
   </si>
   <si>
-    <t>Erwachter Ritter</t>
-  </si>
-  <si>
-    <t>Ein Standard Erwachter mit zerstörten Augen</t>
-  </si>
-  <si>
-    <t>Ein Standard Erwachter mit nur einem Arm</t>
-  </si>
-  <si>
-    <t>Ein Standard Erwachter mit verletztem Bein</t>
-  </si>
-  <si>
     <t>Schild</t>
   </si>
   <si>
-    <t>Ein Standard Erwachter mit schwerer Rüstung und Schwert, Das Visier schränkt Sicht ein und das klappern der verwachsenen Rüstung erschwert das schleichen</t>
-  </si>
-  <si>
-    <t>Ein Erwachter aus den Überresten eines hochrangigen Ritters dessen Instinkte so tief eingebrannt sind, dass er selbst im Tod noch Angriffe mit seinem Schild blockt</t>
-  </si>
-  <si>
-    <t>Erwachter Soldat</t>
-  </si>
-  <si>
-    <t>Ein Standart Erwachter in Militär Rüstung</t>
-  </si>
-  <si>
-    <t>Erwachter Auserwählter des Blutgotts</t>
-  </si>
-  <si>
-    <t>Dieser Besondere Auserwählte hat durch seinen Ruf große Teile seiner Kognitivenfähigkeiten behalten und wurde weiters dazu ermächtigt je nach Stufe eine unterschiedliche Anzahl an Erwachten zu befehligen, da die befehligten jedoch dadurch nicht intelligenter werden können dies keine komplexen befehle sein und benötigen entweder Sichtkontakt des Auserwählten auf das Ziel oder sind nach der ausführung des Befehls wieder sich selbst überlassen</t>
-  </si>
-  <si>
-    <t>Usukat</t>
-  </si>
-  <si>
-    <t>Haariger, Blinder, nach nichts riechender, schneller, sehr starker "Zombie".  HIGH LEVEL Gegner</t>
-  </si>
-  <si>
-    <t>Kathakan</t>
-  </si>
-  <si>
-    <t>Feuerempfindlich, selbstheilung ,lowlevel monster</t>
-  </si>
-  <si>
-    <t>Werwolf</t>
-  </si>
-  <si>
-    <t>Erwachter Ork Schwer</t>
-  </si>
-  <si>
-    <t>Erwachter Ork schwere Rüstung und Kriegshammer</t>
-  </si>
-  <si>
-    <t>Ein Werwolf</t>
-  </si>
-  <si>
-    <t>Fungalit</t>
-  </si>
-  <si>
-    <t>Pilzmonster basic</t>
-  </si>
-  <si>
-    <t>Fungalit Rüstungmittel</t>
-  </si>
-  <si>
-    <t>Fungalit Rüstungschwer</t>
-  </si>
-  <si>
-    <t>Fungalit Steinschleuderer</t>
-  </si>
-  <si>
-    <t>Fungalit Pestwirt</t>
-  </si>
-  <si>
-    <t>Pilzmonster in mittlerer Rüstung</t>
-  </si>
-  <si>
-    <t>Pilzmonster in schwerer Rüstung</t>
-  </si>
-  <si>
-    <t>Pilzmonster mit Steinschleuder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilzmonster das den Pilz überträgt - hat am Rücken Sichtbare grellblaue Pusteln </t>
-  </si>
-  <si>
-    <t>Zwillinge des Abgrundes</t>
-  </si>
-  <si>
-    <t>15 Meter großer knochenschädler aus Wandia. Rennt ständig mit Zwilling herum. Legendäres Monster</t>
-  </si>
-  <si>
-    <t>Knochenschädler Spross d. Zwil.</t>
-  </si>
-  <si>
-    <t>Kleiner Knochenschädler Spross der Zwillinge</t>
-  </si>
-  <si>
-    <t>Fleischsauger</t>
-  </si>
-  <si>
-    <t>Agiler Vampiridae in humanoider Form. Sneaky Feigling. MID LEVEL Gegner</t>
-  </si>
-  <si>
     <t>Helm</t>
   </si>
   <si>
@@ -351,78 +237,15 @@
     <t>Konstrukt</t>
   </si>
   <si>
-    <t>Erwachter Wahrer Auserwählter</t>
-  </si>
-  <si>
-    <t>Eine nahezu unsterbliche entität gesegnet mit immensen Kräfen durch seinen Status als besonderer Liebling des Bluttgotts des Todes, sein Tod ist stets nur Temprorär wird er nicht versiegelt oder seine Gliedmaßen in den Winden verstreut</t>
-  </si>
-  <si>
-    <t>Erwachte Auserwählte unterarten</t>
-  </si>
-  <si>
-    <t>Täuschung, Stratege, Tank, Creep</t>
-  </si>
-  <si>
-    <t>Erwachter Stark</t>
-  </si>
-  <si>
-    <t>Großer Aufspießer</t>
-  </si>
-  <si>
     <t>Resistenzen</t>
   </si>
   <si>
-    <t>High Level high Armor Penetration Monster, multi Attacks</t>
-  </si>
-  <si>
-    <t>Bermatalteufel</t>
-  </si>
-  <si>
-    <t>Mediumlevel, High Armor, Dodgy Viech</t>
-  </si>
-  <si>
-    <t>Blauer Merkantolith</t>
-  </si>
-  <si>
-    <t>Felsenkriecher</t>
-  </si>
-  <si>
-    <t>Mediumlevel Monster in Silva Nacia</t>
-  </si>
-  <si>
-    <t>Mediumlevel Monster in den Himmelsspitzengebirgen</t>
-  </si>
-  <si>
-    <t>Terrut</t>
-  </si>
-  <si>
-    <t>7 Meter Foedukulus, bewaffnet sich rudimentär mit Baumstämmen und riesigen Holzzschilden</t>
-  </si>
-  <si>
-    <t>Wüstenschläger</t>
-  </si>
-  <si>
-    <t>Mediumlevel Vielbeiner</t>
-  </si>
-  <si>
     <t>Größe</t>
   </si>
   <si>
     <t>Mittel</t>
   </si>
   <si>
-    <t>Schlammtrommler</t>
-  </si>
-  <si>
-    <t>Highlevel Starkgepanzerter Krebs im Nebelhain und Silva Nacia</t>
-  </si>
-  <si>
-    <t>poison</t>
-  </si>
-  <si>
-    <t>bleeding</t>
-  </si>
-  <si>
     <t>natürlich</t>
   </si>
   <si>
@@ -463,6 +286,18 @@
   </si>
   <si>
     <t>Konstrukt_Waffe</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>Konstrukt Alvis</t>
+  </si>
+  <si>
+    <t>Irgendein Konstrukt</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +866,8 @@
   </sheetPr>
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,10 +879,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1071,225 +906,103 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" t="s">
-        <v>106</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" t="s">
-        <v>108</v>
-      </c>
+      <c r="A24" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1304,13 +1017,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F074AEAC-AF1C-4129-BA15-237A0D464277}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
@@ -1335,13 +1049,13 @@
         <v>37</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="H1" s="4"/>
       <c r="J1" s="4"/>
@@ -1365,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
@@ -1391,10 +1105,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1417,10 +1131,10 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="J4" s="5"/>
     </row>
@@ -1440,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>36</v>
@@ -1492,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>31</v>
@@ -1518,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="K8" s="5"/>
     </row>
@@ -1537,10 +1251,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="H9" s="5">
         <v>5</v>
@@ -1563,7 +1277,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="K10" s="5"/>
       <c r="M10" s="4"/>
@@ -1584,10 +1298,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="K11" s="5"/>
     </row>
@@ -1596,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>13</v>
@@ -1606,7 +1320,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -1628,7 +1342,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="F13">
         <v>500</v>
@@ -1653,7 +1367,7 @@
         <v>38</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1720,7 +1434,7 @@
         <v>99</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D18" s="12">
         <f>$D$17*0.05</f>
@@ -1736,14 +1450,14 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B19" s="11">
         <f>B17/2</f>
         <v>75</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="D19" s="12">
         <f>$D$17*0.2</f>
@@ -1759,14 +1473,14 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B20" s="11">
         <f>B17/2</f>
         <v>75</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="D20" s="12">
         <f>$D$17*0.2</f>
@@ -1782,14 +1496,14 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B21" s="11">
         <f>B17/3</f>
         <v>50</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="D21" s="12">
         <f>$D$17*0.35</f>
@@ -1805,14 +1519,14 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B22" s="11">
         <f>B17/3</f>
         <v>50</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="D22" s="12">
         <f>$D$17*0.2</f>
@@ -1828,7 +1542,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B23" s="11">
         <f>B17/3</f>
@@ -1846,7 +1560,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B24" s="11">
         <f>B17/3</f>
@@ -1867,13 +1581,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
@@ -1891,10 +1605,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1914,10 +1628,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -1930,39 +1644,39 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B29" s="14">
         <v>1</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B30" s="14">
         <v>5</v>
@@ -1972,11 +1686,11 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="14" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="D31" s="13">
         <v>5</v>
@@ -1989,7 +1703,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="23"/>
@@ -1999,7 +1713,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -2007,7 +1721,7 @@
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -2035,7 +1749,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="B45" s="14">
         <f>IF(H4="groß",1.3,1)</f>

--- a/Container/Data/ProfilesKonstrukte.xlsx
+++ b/Container/Data/ProfilesKonstrukte.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675BA53B-71BD-482F-A670-C6B7126EAC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE2CF2D-E5CE-44C1-BA73-C273F407DA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
-    <sheet name="Konstrukt Alvis" sheetId="34" r:id="rId2"/>
+    <sheet name="Angriffskonstruktklein" sheetId="36" r:id="rId2"/>
+    <sheet name="Dampfgolem" sheetId="38" r:id="rId3"/>
+    <sheet name="Artilleriekonstrukt" sheetId="35" r:id="rId4"/>
+    <sheet name="Konstrukt Alvis" sheetId="34" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="98">
   <si>
     <t>Lucksave</t>
   </si>
@@ -246,9 +249,6 @@
     <t>Mittel</t>
   </si>
   <si>
-    <t>natürlich</t>
-  </si>
-  <si>
     <t>Batterieladungen</t>
   </si>
   <si>
@@ -270,12 +270,6 @@
     <t>True</t>
   </si>
   <si>
-    <t>brennen</t>
-  </si>
-  <si>
-    <t>Waffen / Schild / Addons</t>
-  </si>
-  <si>
     <t>Core Details</t>
   </si>
   <si>
@@ -285,19 +279,58 @@
     <t>Größenfaktor</t>
   </si>
   <si>
-    <t>Konstrukt_Waffe</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>bluten</t>
-  </si>
-  <si>
     <t>Konstrukt Alvis</t>
   </si>
   <si>
     <t>Irgendein Konstrukt</t>
+  </si>
+  <si>
+    <t>Natürlich</t>
+  </si>
+  <si>
+    <t>Wert</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>TierW1</t>
+  </si>
+  <si>
+    <t>TierW2</t>
+  </si>
+  <si>
+    <t>TierW3</t>
+  </si>
+  <si>
+    <t>TierSchild</t>
+  </si>
+  <si>
+    <t>Übriges</t>
+  </si>
+  <si>
+    <t>Schwert</t>
+  </si>
+  <si>
+    <t>Großschwert</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Groß</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Pfeilwerfer</t>
+  </si>
+  <si>
+    <t>KonstruktBohrer</t>
   </si>
 </sst>
 </file>
@@ -512,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -538,6 +571,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -878,16 +913,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -899,10 +934,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,21 +1049,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F074AEAC-AF1C-4129-BA15-237A0D464277}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099EDC41-F32E-4F97-83B4-1AAF1E4747F1}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -1049,15 +1084,17 @@
         <v>37</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1066,23 +1103,26 @@
       </c>
       <c r="B2" s="11">
         <f>IF(H5+1&gt;$H$12,$H$12,H5+1)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="12">
         <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="26" t="s">
+        <v>90</v>
+      </c>
       <c r="G2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="5"/>
     </row>
@@ -1092,23 +1132,26 @@
       </c>
       <c r="B3" s="11">
         <f>IF(H6+1&gt;$H$12,$H$12,H6+1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="F3" s="26" t="s">
+        <v>90</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -1118,18 +1161,20 @@
         <v>33</v>
       </c>
       <c r="B4" s="11">
-        <v>1</v>
+        <f>H12/2</f>
+        <v>10</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F4" s="26"/>
       <c r="G4" t="s">
         <v>68</v>
       </c>
@@ -1144,23 +1189,26 @@
       </c>
       <c r="B5" s="11">
         <f>IF(H7+1&gt;$H$12,$H$12,H7+1)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="F5" s="26" t="s">
+        <v>49</v>
+      </c>
       <c r="G5" s="11" t="s">
         <v>36</v>
       </c>
       <c r="H5" s="11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -1171,21 +1219,21 @@
       </c>
       <c r="B6" s="11">
         <f>H12</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4"/>
       <c r="G6" s="11" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -1196,17 +1244,17 @@
       </c>
       <c r="B7" s="11">
         <f>H12*0.75</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>31</v>
@@ -1229,10 +1277,10 @@
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K8" s="5"/>
     </row>
@@ -1248,16 +1296,16 @@
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -1266,18 +1314,17 @@
         <v>22</v>
       </c>
       <c r="B10" s="11">
-        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K10" s="5"/>
       <c r="M10" s="4"/>
@@ -1288,20 +1335,20 @@
         <v>20</v>
       </c>
       <c r="B11" s="11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K11" s="5"/>
     </row>
@@ -1317,13 +1364,13 @@
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1332,14 +1379,14 @@
       </c>
       <c r="B13" s="11">
         <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>63</v>
@@ -1353,21 +1400,20 @@
         <v>2</v>
       </c>
       <c r="B14" s="11">
-        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1376,15 +1422,24 @@
       </c>
       <c r="B15" s="11">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="13"/>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="25">
+        <v>2</v>
+      </c>
       <c r="G15" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H15" s="4">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1397,11 +1452,20 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="13"/>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="25">
+        <v>2</v>
+      </c>
       <c r="G16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1410,20 +1474,29 @@
       </c>
       <c r="B17" s="11">
         <f>H12*15</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="24">
         <f>VLOOKUP(H2,A46:B49,2,FALSE)*B45</f>
-        <v>100</v>
+        <v>130</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="25">
+        <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H17" s="4">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1438,13 +1511,22 @@
       </c>
       <c r="D18" s="12">
         <f>$D$17*0.05</f>
-        <v>5</v>
+        <v>6.5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="25">
+        <v>2</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>92</v>
       </c>
       <c r="K18" s="5"/>
     </row>
@@ -1454,20 +1536,23 @@
       </c>
       <c r="B19" s="11">
         <f>B17/2</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="12">
         <f>$D$17*0.2</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>92</v>
       </c>
       <c r="K19" s="5"/>
     </row>
@@ -1477,20 +1562,23 @@
       </c>
       <c r="B20" s="11">
         <f>B17/2</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="12">
         <f>$D$17*0.2</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>93</v>
       </c>
       <c r="K20" s="5"/>
     </row>
@@ -1500,20 +1588,23 @@
       </c>
       <c r="B21" s="11">
         <f>B17/3</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="12">
         <f>$D$17*0.35</f>
-        <v>35</v>
+        <v>45.5</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>93</v>
       </c>
       <c r="K21" s="5"/>
     </row>
@@ -1523,20 +1614,23 @@
       </c>
       <c r="B22" s="11">
         <f>B17/3</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>54</v>
       </c>
       <c r="D22" s="12">
         <f>$D$17*0.2</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>93</v>
       </c>
       <c r="K22" s="4"/>
     </row>
@@ -1546,7 +1640,7 @@
       </c>
       <c r="B23" s="11">
         <f>B17/3</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
@@ -1556,6 +1650,9 @@
       <c r="H23" s="4">
         <v>0</v>
       </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1564,7 +1661,7 @@
       </c>
       <c r="B24" s="11">
         <f>B17/3</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
@@ -1574,6 +1671,9 @@
       <c r="H24" s="4">
         <v>0</v>
       </c>
+      <c r="I24" t="s">
+        <v>93</v>
+      </c>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1587,13 +1687,16 @@
         <v>56</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="4">
         <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>93</v>
       </c>
       <c r="K25" s="4"/>
     </row>
@@ -1608,7 +1711,7 @@
         <v>57</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1618,6 +1721,9 @@
       <c r="H26" s="4">
         <v>0</v>
       </c>
+      <c r="I26" t="s">
+        <v>93</v>
+      </c>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1631,7 +1737,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -1640,6 +1746,9 @@
       <c r="H27" s="4">
         <v>0</v>
       </c>
+      <c r="I27" t="s">
+        <v>93</v>
+      </c>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1647,13 +1756,13 @@
         <v>55</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1669,7 +1778,7 @@
         <v>60</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -1681,20 +1790,18 @@
       <c r="B30" s="14">
         <v>5</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="13"/>
+      <c r="C30" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="13">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="11"/>
-      <c r="C31" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="13">
-        <v>5</v>
-      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1702,9 +1809,7 @@
       <c r="N31" s="4"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>78</v>
-      </c>
+      <c r="A32" s="18"/>
       <c r="B32" s="11"/>
       <c r="C32" s="23"/>
       <c r="D32" s="19"/>
@@ -1712,17 +1817,13 @@
       <c r="N32" s="4"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>84</v>
-      </c>
+      <c r="A33" s="18"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
-        <v>85</v>
-      </c>
+      <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
@@ -1749,7 +1850,2537 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="14">
+        <f>IF(H4="groß",1.3,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>1</v>
+      </c>
+      <c r="B46" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>2</v>
+      </c>
+      <c r="B47" s="14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>3</v>
+      </c>
+      <c r="B48" s="14">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>4</v>
+      </c>
+      <c r="B49" s="15">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F754FB3-C6ED-4A06-B3B4-97217FAE25BD}">
+  <dimension ref="A1:N49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="11">
+        <f>IF(H5+1&gt;$H$12,$H$12,H5+1)</f>
+        <v>17</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12">
+        <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
+        <v>60</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="11">
+        <f>IF(H6+1&gt;$H$12,$H$12,H6+1)</f>
+        <v>16</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="12">
+        <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="11">
+        <f>H12/2</f>
+        <v>15</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="11">
+        <f>IF(H7+1&gt;$H$12,$H$12,H7+1)</f>
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="11">
+        <v>16</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="11">
+        <f>H12</f>
+        <v>30</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="G6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="11">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11">
+        <f>H12*0.75</f>
+        <v>22.5</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="11">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="5">
+        <v>20</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="11">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="25">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="4">
+        <v>60</v>
+      </c>
+      <c r="I15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="11">
+        <f>B8+B9</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="25">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="11">
+        <f>H12*15</f>
+        <v>450</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="24">
+        <f>VLOOKUP(H2,A46:B49,2,FALSE)*B45</f>
+        <v>188.5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="25">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>99</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="12">
+        <f>$D$17*0.05</f>
+        <v>9.4250000000000007</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="25">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="11">
+        <f>B17/2</f>
+        <v>225</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="12">
+        <f>$D$17*0.2</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="11">
+        <f>B17/2</f>
+        <v>225</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="12">
+        <f>$D$17*0.2</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="11">
+        <f>B17/3</f>
+        <v>150</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="12">
+        <f>$D$17*0.35</f>
+        <v>65.974999999999994</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="11">
+        <f>B17/3</f>
+        <v>150</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="12">
+        <f>$D$17*0.2</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="11">
+        <f>B17/3</f>
+        <v>150</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="G23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="11">
+        <f>B17/3</f>
+        <v>150</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="G24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>82</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="11">
+        <v>2</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="14">
+        <v>5</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="19"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="14">
+        <f>IF(H4="groß",1.3,1)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>1</v>
+      </c>
+      <c r="B46" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>2</v>
+      </c>
+      <c r="B47" s="14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>3</v>
+      </c>
+      <c r="B48" s="14">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>4</v>
+      </c>
+      <c r="B49" s="15">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD683614-8893-4161-A156-25595201141B}">
+  <dimension ref="A1:N49"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="11">
+        <f>IF(H5+1&gt;$H$12,$H$12,H5+1)</f>
+        <v>17</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12">
+        <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="11">
+        <f>IF(H6+1&gt;$H$12,$H$12,H6+1)</f>
+        <v>16</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="12">
+        <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="11">
+        <f>H12/2</f>
+        <v>15</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="11">
+        <f>IF(H7+1&gt;$H$12,$H$12,H7+1)</f>
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="11">
+        <v>16</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="11">
+        <f>H12</f>
+        <v>30</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="G6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="11">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11">
+        <f>H12*0.75</f>
+        <v>22.5</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="11">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="5">
+        <v>20</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="11">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="25">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="11">
+        <f>B8+B9</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="25">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="11">
+        <f>H12*15</f>
+        <v>450</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="24">
+        <f>VLOOKUP(H2,A46:B49,2,FALSE)*B45</f>
+        <v>188.5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="25">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>99</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="12">
+        <f>$D$17*0.05</f>
+        <v>9.4250000000000007</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="25">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="4">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="11">
+        <f>B17/2</f>
+        <v>225</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="12">
+        <f>$D$17*0.2</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="11">
+        <f>B17/2</f>
+        <v>225</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="12">
+        <f>$D$17*0.2</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="11">
+        <f>B17/3</f>
+        <v>150</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="12">
+        <f>$D$17*0.35</f>
+        <v>65.974999999999994</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="11">
+        <f>B17/3</f>
+        <v>150</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="12">
+        <f>$D$17*0.2</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="11">
+        <f>B17/3</f>
+        <v>150</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="G23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="11">
+        <f>B17/3</f>
+        <v>150</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="G24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="11">
+        <v>2</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="14">
+        <v>5</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="19"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="14">
+        <f>IF(H4="groß",1.3,1)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>1</v>
+      </c>
+      <c r="B46" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>2</v>
+      </c>
+      <c r="B47" s="14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>3</v>
+      </c>
+      <c r="B48" s="14">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>4</v>
+      </c>
+      <c r="B49" s="15">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F074AEAC-AF1C-4129-BA15-237A0D464277}">
+  <dimension ref="A1:N49"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I15:I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="11">
+        <f>IF(H5+1&gt;$H$12,$H$12,H5+1)</f>
+        <v>10</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12">
+        <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="11">
+        <f>IF(H6+1&gt;$H$12,$H$12,H6+1)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="12">
+        <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="11">
+        <f>H12/2</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="11">
+        <f>IF(H7+1&gt;$H$12,$H$12,H7+1)</f>
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="11">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="11">
+        <f>H12</f>
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="G6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11">
+        <f>H12*0.75</f>
+        <v>7.5</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="11">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="11">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>9</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="25">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="11">
+        <f>B8+B9</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="25">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="11">
+        <f>H12*15</f>
+        <v>150</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="24">
+        <f>VLOOKUP(H2,A46:B49,2,FALSE)*B45</f>
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="25">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>99</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="12">
+        <f>$D$17*0.05</f>
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="25">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="11">
+        <f>B17/2</f>
+        <v>75</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="12">
+        <f>$D$17*0.2</f>
+        <v>20</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="11">
+        <f>B17/2</f>
+        <v>75</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="12">
+        <f>$D$17*0.2</f>
+        <v>20</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="11">
+        <f>B17/3</f>
+        <v>50</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="12">
+        <f>$D$17*0.35</f>
+        <v>35</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="11">
+        <f>B17/3</f>
+        <v>50</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="12">
+        <f>$D$17*0.2</f>
+        <v>20</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="11">
+        <f>B17/3</f>
+        <v>50</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="G23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="11">
+        <f>B17/3</f>
+        <v>50</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="G24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="11">
+        <v>2</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="14">
+        <v>5</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="19"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="B45" s="14">
         <f>IF(H4="groß",1.3,1)</f>

--- a/Container/Data/ProfilesKonstrukte.xlsx
+++ b/Container/Data/ProfilesKonstrukte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE2CF2D-E5CE-44C1-BA73-C273F407DA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C915DE6F-480C-4D0C-AE3A-F0A72D5D4143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Artilleriekonstrukt" sheetId="35" r:id="rId4"/>
     <sheet name="Konstrukt Alvis" sheetId="34" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -87,9 +87,6 @@
     <t>Armor</t>
   </si>
   <si>
-    <t>Schlossknacken</t>
-  </si>
-  <si>
     <t>Ausdauer</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>KonstruktBohrer</t>
+  </si>
+  <si>
+    <t>Fingerfertigkeit</t>
   </si>
 </sst>
 </file>
@@ -905,137 +905,137 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5859375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.87890625" customWidth="1"/>
+    <col min="6" max="6" width="11.5859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="28"/>
       <c r="B2" s="30"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
@@ -1052,61 +1052,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099EDC41-F32E-4F97-83B4-1AAF1E4747F1}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.1171875" customWidth="1"/>
+    <col min="2" max="2" width="10.1171875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.87890625" customWidth="1"/>
+    <col min="6" max="6" width="13.41015625" customWidth="1"/>
+    <col min="7" max="7" width="21.29296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.87890625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.41015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="11">
         <f>IF(H5+1&gt;$H$12,$H$12,H5+1)</f>
         <v>15</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="12">
         <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
@@ -1116,26 +1116,26 @@
         <v>10</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" s="4">
         <v>2</v>
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="11">
         <f>IF(H6+1&gt;$H$12,$H$12,H6+1)</f>
         <v>5</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="12">
         <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
@@ -1145,27 +1145,27 @@
         <v>9</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="11">
         <f>H12/2</f>
         <v>10</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" si="0"/>
@@ -1176,36 +1176,36 @@
       </c>
       <c r="F4" s="26"/>
       <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
         <v>68</v>
       </c>
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="11">
         <f>IF(H7+1&gt;$H$12,$H$12,H7+1)</f>
         <v>11</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="11">
         <v>14</v>
@@ -1213,16 +1213,16 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="11">
         <f>H12</f>
         <v>20</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="G6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="11">
         <v>4</v>
@@ -1238,26 +1238,26 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11">
         <f>H12*0.75</f>
         <v>15</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="11">
         <v>10</v>
@@ -1265,74 +1265,74 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="11">
         <v>0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" s="5">
         <v>15</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="11">
         <v>0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="11">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>13</v>
@@ -1367,13 +1367,13 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -1389,13 +1389,13 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -1410,13 +1410,13 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -1427,22 +1427,22 @@
       <c r="C15" s="14"/>
       <c r="D15" s="13"/>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="25">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="4">
         <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -1453,24 +1453,24 @@
       <c r="C16" s="14"/>
       <c r="D16" s="13"/>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="25">
         <v>2</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="11">
         <f>H12*15</f>
@@ -1484,159 +1484,159 @@
         <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="25">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="4">
         <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="11">
         <v>99</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="12">
         <f>$D$17*0.05</f>
         <v>6.5</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="25">
         <v>2</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="11">
         <f>B17/2</f>
         <v>150</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="12">
         <f>$D$17*0.2</f>
         <v>26</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="11">
         <f>B17/2</f>
         <v>150</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="12">
         <f>$D$17*0.2</f>
         <v>26</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="11">
         <f>B17/3</f>
         <v>100</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="12">
         <f>$D$17*0.35</f>
         <v>45.5</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="11">
         <f>B17/3</f>
         <v>100</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="12">
         <f>$D$17*0.2</f>
         <v>26</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="11">
         <f>B17/3</f>
@@ -1645,19 +1645,19 @@
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
       <c r="G23" s="4" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="11">
         <f>B17/3</f>
@@ -1672,22 +1672,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
@@ -1696,11 +1696,11 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -1708,10 +1708,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1722,11 +1722,11 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -1734,10 +1734,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -1747,59 +1747,59 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="14">
         <v>1</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A30" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="14">
         <v>5</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A31" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="11"/>
       <c r="G31" s="1"/>
@@ -1808,7 +1808,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A32" s="18"/>
       <c r="B32" s="11"/>
       <c r="C32" s="23"/>
@@ -1816,48 +1816,48 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A33" s="18"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A45" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="14">
         <f>IF(H4="groß",1.3,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A46" s="14">
         <v>1</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A47" s="14">
         <v>2</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A48" s="14">
         <v>3</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="14">
         <v>4</v>
       </c>
@@ -1899,61 +1899,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F754FB3-C6ED-4A06-B3B4-97217FAE25BD}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.1171875" customWidth="1"/>
+    <col min="2" max="2" width="10.1171875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.87890625" customWidth="1"/>
+    <col min="6" max="6" width="13.41015625" customWidth="1"/>
+    <col min="7" max="7" width="21.29296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.87890625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.41015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="11">
         <f>IF(H5+1&gt;$H$12,$H$12,H5+1)</f>
         <v>17</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="12">
         <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
@@ -1963,26 +1963,26 @@
         <v>10</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" s="4">
         <v>3</v>
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="11">
         <f>IF(H6+1&gt;$H$12,$H$12,H6+1)</f>
         <v>16</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="12">
         <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
@@ -1993,24 +1993,24 @@
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="11">
         <f>H12/2</f>
         <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" si="0"/>
@@ -2021,34 +2021,34 @@
       </c>
       <c r="F4" s="26"/>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="11">
         <f>IF(H7+1&gt;$H$12,$H$12,H7+1)</f>
         <v>11</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="11">
         <v>16</v>
@@ -2056,16 +2056,16 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="11">
         <f>H12</f>
         <v>30</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="G6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="11">
         <v>15</v>
@@ -2081,26 +2081,26 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11">
         <f>H12*0.75</f>
         <v>22.5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="11">
         <v>10</v>
@@ -2108,74 +2108,74 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="11">
         <v>0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" s="5">
         <v>20</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="11">
         <v>0</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>16</v>
+      <c r="C10" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="11">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>13</v>
@@ -2210,13 +2210,13 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -2232,13 +2232,13 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -2253,13 +2253,13 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -2270,22 +2270,22 @@
       <c r="C15" s="14"/>
       <c r="D15" s="13"/>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="25">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="4">
         <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -2296,24 +2296,24 @@
       <c r="C16" s="14"/>
       <c r="D16" s="13"/>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="25">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="11">
         <f>H12*15</f>
@@ -2327,157 +2327,157 @@
         <v>188.5</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="25">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="11">
         <v>99</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="12">
         <f>$D$17*0.05</f>
         <v>9.4250000000000007</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="25">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="11">
         <f>B17/2</f>
         <v>225</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="12">
         <f>$D$17*0.2</f>
         <v>37.700000000000003</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="11">
         <f>B17/2</f>
         <v>225</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="12">
         <f>$D$17*0.2</f>
         <v>37.700000000000003</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="11">
         <f>B17/3</f>
         <v>150</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="12">
         <f>$D$17*0.35</f>
         <v>65.974999999999994</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="11">
         <f>B17/3</f>
         <v>150</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="12">
         <f>$D$17*0.2</f>
         <v>37.700000000000003</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="11">
         <f>B17/3</f>
@@ -2486,19 +2486,19 @@
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
       <c r="G23" s="4" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="11">
         <f>B17/3</f>
@@ -2513,22 +2513,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
@@ -2537,11 +2537,11 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -2549,10 +2549,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2563,11 +2563,11 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -2575,10 +2575,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -2588,59 +2588,59 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="14">
         <v>1</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A30" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="14">
         <v>5</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A31" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="11"/>
       <c r="G31" s="1"/>
@@ -2649,7 +2649,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A32" s="18"/>
       <c r="B32" s="11"/>
       <c r="C32" s="23"/>
@@ -2657,48 +2657,48 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A33" s="18"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A45" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="14">
         <f>IF(H4="groß",1.3,1)</f>
         <v>1.3</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A46" s="14">
         <v>1</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A47" s="14">
         <v>2</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A48" s="14">
         <v>3</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="14">
         <v>4</v>
       </c>
@@ -2741,60 +2741,60 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.1171875" customWidth="1"/>
+    <col min="2" max="2" width="10.1171875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.87890625" customWidth="1"/>
+    <col min="6" max="6" width="13.41015625" customWidth="1"/>
+    <col min="7" max="7" width="21.29296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.87890625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.41015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="11">
         <f>IF(H5+1&gt;$H$12,$H$12,H5+1)</f>
         <v>17</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="12">
         <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
@@ -2804,26 +2804,26 @@
         <v>10</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" s="4">
         <v>3</v>
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="11">
         <f>IF(H6+1&gt;$H$12,$H$12,H6+1)</f>
         <v>16</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="12">
         <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
@@ -2833,27 +2833,27 @@
         <v>9</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="11">
         <f>H12/2</f>
         <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" si="0"/>
@@ -2863,39 +2863,39 @@
         <v>8</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="11">
         <f>IF(H7+1&gt;$H$12,$H$12,H7+1)</f>
         <v>11</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="11">
         <v>16</v>
@@ -2903,16 +2903,16 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="11">
         <f>H12</f>
         <v>30</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="G6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="11">
         <v>15</v>
@@ -2928,26 +2928,26 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11">
         <f>H12*0.75</f>
         <v>22.5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="11">
         <v>10</v>
@@ -2955,74 +2955,74 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="11">
         <v>0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" s="5">
         <v>20</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="11">
         <v>0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="11">
         <v>0</v>
@@ -3035,19 +3035,19 @@
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>13</v>
@@ -3057,13 +3057,13 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -3079,13 +3079,13 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -3100,13 +3100,13 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -3117,22 +3117,22 @@
       <c r="C15" s="14"/>
       <c r="D15" s="13"/>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="25">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -3143,24 +3143,24 @@
       <c r="C16" s="14"/>
       <c r="D16" s="13"/>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="25">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="11">
         <f>H12*15</f>
@@ -3174,159 +3174,159 @@
         <v>188.5</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="25">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="11">
         <v>99</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="12">
         <f>$D$17*0.05</f>
         <v>9.4250000000000007</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="25">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="4">
         <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="11">
         <f>B17/2</f>
         <v>225</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="12">
         <f>$D$17*0.2</f>
         <v>37.700000000000003</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="11">
         <f>B17/2</f>
         <v>225</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="12">
         <f>$D$17*0.2</f>
         <v>37.700000000000003</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="11">
         <f>B17/3</f>
         <v>150</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="12">
         <f>$D$17*0.35</f>
         <v>65.974999999999994</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="11">
         <f>B17/3</f>
         <v>150</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="12">
         <f>$D$17*0.2</f>
         <v>37.700000000000003</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="11">
         <f>B17/3</f>
@@ -3335,19 +3335,19 @@
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
       <c r="G23" s="4" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="11">
         <f>B17/3</f>
@@ -3362,22 +3362,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
@@ -3386,11 +3386,11 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -3398,10 +3398,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -3412,11 +3412,11 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -3424,10 +3424,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -3437,59 +3437,59 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="14">
         <v>1</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A30" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="14">
         <v>5</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A31" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="11"/>
       <c r="G31" s="1"/>
@@ -3498,7 +3498,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A32" s="18"/>
       <c r="B32" s="11"/>
       <c r="C32" s="23"/>
@@ -3506,48 +3506,48 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A33" s="18"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A45" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="14">
         <f>IF(H4="groß",1.3,1)</f>
         <v>1.3</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A46" s="14">
         <v>1</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A47" s="14">
         <v>2</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A48" s="14">
         <v>3</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="14">
         <v>4</v>
       </c>
@@ -3589,61 +3589,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F074AEAC-AF1C-4129-BA15-237A0D464277}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I15:I28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.1171875" customWidth="1"/>
+    <col min="2" max="2" width="10.1171875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.87890625" customWidth="1"/>
+    <col min="6" max="6" width="13.41015625" customWidth="1"/>
+    <col min="7" max="7" width="21.29296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.87890625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.41015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="11">
         <f>IF(H5+1&gt;$H$12,$H$12,H5+1)</f>
         <v>10</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="12">
         <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
@@ -3654,23 +3654,23 @@
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="11">
         <f>IF(H6+1&gt;$H$12,$H$12,H6+1)</f>
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="12">
         <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
@@ -3681,24 +3681,24 @@
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="11">
         <f>H12/2</f>
         <v>5</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="12">
         <f t="shared" si="0"/>
@@ -3708,34 +3708,34 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
         <v>68</v>
       </c>
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="11">
         <f>IF(H7+1&gt;$H$12,$H$12,H7+1)</f>
         <v>10</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="11">
         <v>10</v>
@@ -3743,16 +3743,16 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="11">
         <f>H12</f>
         <v>10</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="G6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="11">
         <v>0</v>
@@ -3768,26 +3768,26 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11">
         <f>H12*0.75</f>
         <v>7.5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="11">
         <v>10</v>
@@ -3795,74 +3795,74 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="11">
         <v>0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="11">
         <v>0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H9" s="5">
         <v>5</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="11">
         <v>0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="11">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>13</v>
@@ -3897,13 +3897,13 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -3919,13 +3919,13 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -3940,13 +3940,13 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -3957,22 +3957,22 @@
       <c r="C15" s="14"/>
       <c r="D15" s="13"/>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="25">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -3983,24 +3983,24 @@
       <c r="C16" s="14"/>
       <c r="D16" s="13"/>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="25">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="11">
         <f>H12*15</f>
@@ -4014,159 +4014,159 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="25">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="4">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="11">
         <v>99</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="12">
         <f>$D$17*0.05</f>
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="25">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="11">
         <f>B17/2</f>
         <v>75</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="12">
         <f>$D$17*0.2</f>
         <v>20</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="11">
         <f>B17/2</f>
         <v>75</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="12">
         <f>$D$17*0.2</f>
         <v>20</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20" s="4">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="11">
         <f>B17/3</f>
         <v>50</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="12">
         <f>$D$17*0.35</f>
         <v>35</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" s="4">
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="11">
         <f>B17/3</f>
         <v>50</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="12">
         <f>$D$17*0.2</f>
         <v>20</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" s="4">
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="11">
         <f>B17/3</f>
@@ -4175,19 +4175,19 @@
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
       <c r="G23" s="4" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="11">
         <f>B17/3</f>
@@ -4202,22 +4202,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
@@ -4226,11 +4226,11 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -4238,10 +4238,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -4252,11 +4252,11 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -4264,10 +4264,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -4277,59 +4277,59 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="14">
         <v>1</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A30" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="14">
         <v>5</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A31" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="11"/>
       <c r="G31" s="1"/>
@@ -4338,7 +4338,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A32" s="18"/>
       <c r="B32" s="11"/>
       <c r="C32" s="23"/>
@@ -4346,48 +4346,48 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A33" s="18"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A45" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="14">
         <f>IF(H4="groß",1.3,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A46" s="14">
         <v>1</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A47" s="14">
         <v>2</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A48" s="14">
         <v>3</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="14">
         <v>4</v>
       </c>

--- a/Container/Data/ProfilesKonstrukte.xlsx
+++ b/Container/Data/ProfilesKonstrukte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C915DE6F-480C-4D0C-AE3A-F0A72D5D4143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0A272B-1F28-4639-84C1-DDA813004239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -327,10 +327,10 @@
     <t>Pfeilwerfer</t>
   </si>
   <si>
-    <t>KonstruktBohrer</t>
-  </si>
-  <si>
     <t>Fingerfertigkeit</t>
+  </si>
+  <si>
+    <t>Bohrer</t>
   </si>
 </sst>
 </file>
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099EDC41-F32E-4F97-83B4-1AAF1E4747F1}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
@@ -1645,7 +1645,7 @@
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
       <c r="G23" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
@@ -1900,7 +1900,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1963,7 +1963,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>74</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
@@ -2486,7 +2486,7 @@
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
       <c r="G23" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
@@ -2741,7 +2741,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
@@ -3335,7 +3335,7 @@
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
       <c r="G23" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
@@ -3589,7 +3589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F074AEAC-AF1C-4129-BA15-237A0D464277}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
@@ -4175,7 +4175,7 @@
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
       <c r="G23" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>

--- a/Container/Data/ProfilesKonstrukte.xlsx
+++ b/Container/Data/ProfilesKonstrukte.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0A272B-1F28-4639-84C1-DDA813004239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A230B3A-F560-457E-B230-BBFFE7AE17ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
-    <sheet name="Angriffskonstruktklein" sheetId="36" r:id="rId2"/>
-    <sheet name="Dampfgolem" sheetId="38" r:id="rId3"/>
-    <sheet name="Artilleriekonstrukt" sheetId="35" r:id="rId4"/>
-    <sheet name="Konstrukt Alvis" sheetId="34" r:id="rId5"/>
+    <sheet name="Vorlage" sheetId="39" r:id="rId2"/>
+    <sheet name="Angriffskonstruktklein" sheetId="36" r:id="rId3"/>
+    <sheet name="Dampfgolem" sheetId="38" r:id="rId4"/>
+    <sheet name="Artilleriekonstrukt" sheetId="35" r:id="rId5"/>
+    <sheet name="Konstrukt Alvis" sheetId="34" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="101">
   <si>
     <t>Lucksave</t>
   </si>
@@ -331,6 +332,15 @@
   </si>
   <si>
     <t>Bohrer</t>
+  </si>
+  <si>
+    <t>Erweiterungen</t>
+  </si>
+  <si>
+    <t>Erweiterungen (5)</t>
+  </si>
+  <si>
+    <t>Skill Level</t>
   </si>
 </sst>
 </file>
@@ -404,7 +414,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -540,16 +550,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -557,22 +596,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -581,6 +614,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -905,34 +941,34 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5859375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.87890625" customWidth="1"/>
-    <col min="6" max="6" width="11.5859375" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="24"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>79</v>
       </c>
@@ -940,102 +976,102 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
@@ -1049,28 +1085,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099EDC41-F32E-4F97-83B4-1AAF1E4747F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2EA3AD-C9C6-4666-8FEF-755AA0A0B732}">
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1171875" customWidth="1"/>
-    <col min="2" max="2" width="10.1171875" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.87890625" customWidth="1"/>
-    <col min="6" max="6" width="13.41015625" customWidth="1"/>
-    <col min="7" max="7" width="21.29296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.87890625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.41015625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.1171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -1084,7 +1120,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>41</v>
@@ -1097,56 +1133,52 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="4">
         <f>IF(H5+1&gt;$H$12,$H$12,H5+1)</f>
-        <v>15</v>
-      </c>
-      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>89</v>
-      </c>
+      <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="4">
         <f>IF(H6+1&gt;$H$12,$H$12,H6+1)</f>
-        <v>5</v>
-      </c>
-      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>89</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
         <v>73</v>
       </c>
@@ -1156,25 +1188,25 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="4">
         <f>H12/2</f>
-        <v>10</v>
-      </c>
-      <c r="C4" s="11" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="12">
-        <f t="shared" si="0"/>
-        <v>35</v>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="4"/>
       <c r="G4" t="s">
         <v>67</v>
       </c>
@@ -1183,145 +1215,143 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="4">
         <f>IF(H7+1&gt;$H$12,$H$12,H7+1)</f>
-        <v>11</v>
-      </c>
-      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="11">
-        <v>14</v>
+      <c r="H5" s="4">
+        <v>0</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="4">
         <f>H12</f>
-        <v>20</v>
-      </c>
-      <c r="C6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="11">
-        <v>4</v>
+      <c r="H6" s="4">
+        <v>0</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="4">
         <f>H12*0.75</f>
-        <v>15</v>
-      </c>
-      <c r="C7" s="11" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="11">
-        <v>10</v>
+      <c r="H7" s="4">
+        <v>0</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="11">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>71</v>
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="6" t="s">
         <v>69</v>
       </c>
       <c r="H9" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="11">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>71</v>
@@ -1330,63 +1360,64 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="13" t="s">
         <v>76</v>
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
         <v>70</v>
       </c>
       <c r="H12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="4">
         <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>13</v>
-      </c>
-      <c r="C13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>62</v>
@@ -1395,155 +1426,133 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="11">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="4">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>11</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="12"/>
       <c r="E15" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="25">
-        <v>2</v>
-      </c>
+      <c r="F15" s="20"/>
       <c r="G15" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H15" s="4">
-        <v>45</v>
-      </c>
-      <c r="I15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="4">
         <f>B8+B9</f>
         <v>0</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="12"/>
       <c r="E16" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="25">
-        <v>2</v>
-      </c>
+      <c r="F16" s="20"/>
       <c r="G16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H16" s="4">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="4">
         <f>H12*15</f>
-        <v>300</v>
-      </c>
-      <c r="C17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="24">
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="19">
         <f>VLOOKUP(H2,A46:B49,2,FALSE)*B45</f>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="25">
-        <v>1</v>
-      </c>
+      <c r="F17" s="20"/>
       <c r="G17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H17" s="4">
-        <v>35</v>
-      </c>
-      <c r="I17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="4">
         <v>99</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <f>$D$17*0.05</f>
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="25">
-        <v>2</v>
-      </c>
+      <c r="F18" s="20"/>
       <c r="G18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
-        <v>91</v>
-      </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="4">
         <f>B17/2</f>
-        <v>150</v>
-      </c>
-      <c r="C19" s="15" t="s">
+        <v>7.5</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <f>$D$17*0.2</f>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>24</v>
@@ -1551,25 +1560,22 @@
       <c r="H19" s="4">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>91</v>
-      </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="4">
         <f>B17/2</f>
-        <v>150</v>
-      </c>
-      <c r="C20" s="15" t="s">
+        <v>7.5</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <f>$D$17*0.2</f>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>22</v>
@@ -1577,25 +1583,22 @@
       <c r="H20" s="4">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>92</v>
-      </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="4">
         <f>B17/3</f>
-        <v>100</v>
-      </c>
-      <c r="C21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <f>$D$17*0.35</f>
-        <v>45.5</v>
+        <v>35</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>20</v>
@@ -1603,25 +1606,22 @@
       <c r="H21" s="4">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>92</v>
-      </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="4">
         <f>B17/3</f>
-        <v>100</v>
-      </c>
-      <c r="C22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <f>$D$17*0.2</f>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>18</v>
@@ -1629,64 +1629,55 @@
       <c r="H22" s="4">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>92</v>
-      </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="4">
         <f>B17/3</f>
-        <v>100</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="11"/>
       <c r="G23" s="4" t="s">
         <v>96</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
-        <v>91</v>
-      </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="4">
         <f>B17/3</f>
-        <v>100</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="11"/>
       <c r="G24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
-        <v>92</v>
-      </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>81</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -1695,22 +1686,19 @@
       <c r="H25" s="4">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>92</v>
-      </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="4">
         <v>2</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E26" s="4"/>
@@ -1721,22 +1709,19 @@
       <c r="H26" s="4">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
-        <v>92</v>
-      </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="11">
-        <v>1</v>
-      </c>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F27" s="4"/>
@@ -1746,146 +1731,984 @@
       <c r="H27" s="4">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>92</v>
-      </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>81</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="14">
-        <v>1</v>
-      </c>
-      <c r="C29" s="14" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>81</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A30" s="18" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="4"/>
+      <c r="D31" s="25"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A32" s="18"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="19"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="15"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A33" s="18"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A45" s="14" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45">
         <f>IF(H4="groß",1.3,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A46" s="14">
-        <v>1</v>
-      </c>
-      <c r="B46" s="14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A47" s="14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>2</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47">
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A48" s="14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>3</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48">
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="14">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>4</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="5">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099EDC41-F32E-4F97-83B4-1AAF1E4747F1}">
+  <dimension ref="A1:N49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E22" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4">
+        <f>IF(H5+1&gt;$H$12,$H$12,H5+1)</f>
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="11">
+        <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
+        <v>45</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4">
+        <f>IF(H6+1&gt;$H$12,$H$12,H6+1)</f>
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="11">
+        <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4">
+        <f>H12/2</f>
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4">
+        <f>IF(H7+1&gt;$H$12,$H$12,H7+1)</f>
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="4">
+        <v>14</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4">
+        <f>H12</f>
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4">
+        <f>H12*0.75</f>
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="5">
+        <v>15</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>11</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="20">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="4">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B8+B9</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="20">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <f>H12*15</f>
+        <v>300</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="19">
+        <f>VLOOKUP(H2,A46:B49,2,FALSE)*B45</f>
+        <v>130</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="20">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="4">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>99</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="11">
+        <f>$D$17*0.05</f>
+        <v>6.5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="20">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="4">
+        <f>B17/2</f>
+        <v>150</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="11">
+        <f>$D$17*0.2</f>
+        <v>26</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="4">
+        <f>B17/2</f>
+        <v>150</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="11">
+        <f>$D$17*0.2</f>
+        <v>26</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="4">
+        <f>B17/3</f>
+        <v>100</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="11">
+        <f>$D$17*0.35</f>
+        <v>45.5</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4">
+        <f>B17/3</f>
+        <v>100</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="11">
+        <f>$D$17*0.2</f>
+        <v>26</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B17/3</f>
+        <v>100</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="11"/>
+      <c r="G23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="4">
+        <f>B17/3</f>
+        <v>100</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="11"/>
+      <c r="G24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>92</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="15"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45">
+        <f>IF(H4="groß",1.3,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" s="5">
         <v>160</v>
       </c>
     </row>
@@ -1895,7 +2718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F754FB3-C6ED-4A06-B3B4-97217FAE25BD}">
   <dimension ref="A1:N49"/>
   <sheetViews>
@@ -1903,21 +2726,21 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1171875" customWidth="1"/>
-    <col min="2" max="2" width="10.1171875" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.87890625" customWidth="1"/>
-    <col min="6" max="6" width="13.41015625" customWidth="1"/>
-    <col min="7" max="7" width="21.29296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.87890625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.41015625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.1171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -1944,25 +2767,25 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="4">
         <f>IF(H5+1&gt;$H$12,$H$12,H5+1)</f>
         <v>17</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
         <v>60</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1973,25 +2796,25 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="4">
         <f>IF(H6+1&gt;$H$12,$H$12,H6+1)</f>
         <v>16</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
         <v>73</v>
       </c>
@@ -2001,25 +2824,25 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="4">
         <f>H12/2</f>
         <v>15</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="4"/>
       <c r="G4" t="s">
         <v>67</v>
       </c>
@@ -2028,97 +2851,97 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="4">
         <f>IF(H7+1&gt;$H$12,$H$12,H7+1)</f>
         <v>11</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="4">
         <v>16</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="4">
         <f>H12</f>
         <v>30</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="4">
         <v>15</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="4">
         <f>H12*0.75</f>
         <v>22.5</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="4">
         <v>10</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="11">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -2127,24 +2950,24 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="6" t="s">
         <v>69</v>
       </c>
       <c r="H9" s="5">
@@ -2152,17 +2975,17 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="4">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -2173,39 +2996,39 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="13" t="s">
         <v>76</v>
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -2216,18 +3039,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="4">
         <f>ROUNDUP((B7+B5)/2,0)</f>
         <v>17</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -2238,17 +3061,17 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="11">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -2259,20 +3082,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="4">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>13</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="12"/>
       <c r="E15" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="20">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2285,20 +3107,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="4">
         <f>B8+B9</f>
         <v>0</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="12"/>
       <c r="E16" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="20">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -2311,25 +3132,25 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="4">
         <f>H12*15</f>
         <v>450</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="19">
         <f>VLOOKUP(H2,A46:B49,2,FALSE)*B45</f>
         <v>188.5</v>
       </c>
       <c r="E17" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="20">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -2342,24 +3163,24 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="4">
         <v>99</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <f>$D$17*0.05</f>
         <v>9.4250000000000007</v>
       </c>
       <c r="E18" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="20">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -2371,18 +3192,18 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="4">
         <f>B17/2</f>
         <v>225</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <f>$D$17*0.2</f>
         <v>37.700000000000003</v>
       </c>
@@ -2397,18 +3218,18 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="4">
         <f>B17/2</f>
         <v>225</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <f>$D$17*0.2</f>
         <v>37.700000000000003</v>
       </c>
@@ -2423,18 +3244,18 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="4">
         <f>B17/3</f>
         <v>150</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <f>$D$17*0.35</f>
         <v>65.974999999999994</v>
       </c>
@@ -2449,18 +3270,18 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="4">
         <f>B17/3</f>
         <v>150</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <f>$D$17*0.2</f>
         <v>37.700000000000003</v>
       </c>
@@ -2475,16 +3296,16 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="4">
         <f>B17/3</f>
         <v>150</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="11"/>
       <c r="G23" s="4" t="s">
         <v>96</v>
       </c>
@@ -2496,16 +3317,16 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="4">
         <f>B17/3</f>
         <v>150</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="11"/>
       <c r="G24" s="4" t="s">
         <v>14</v>
       </c>
@@ -2517,17 +3338,17 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>81</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -2541,17 +3362,17 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="4">
         <v>2</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E26" s="4"/>
@@ -2567,17 +3388,17 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="11">
-        <v>1</v>
-      </c>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F27" s="4"/>
@@ -2592,990 +3413,139 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>81</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="14">
-        <v>1</v>
-      </c>
-      <c r="C29" s="14" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>81</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A30" s="18" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="4"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A32" s="18"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="19"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="15"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A33" s="18"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A45" s="14" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45">
         <f>IF(H4="groß",1.3,1)</f>
         <v>1.3</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A46" s="14">
-        <v>1</v>
-      </c>
-      <c r="B46" s="14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A47" s="14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>2</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47">
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A48" s="14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>3</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48">
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="14">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>4</v>
       </c>
-      <c r="B49" s="15">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD683614-8893-4161-A156-25595201141B}">
-  <dimension ref="A1:N49"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="20.1171875" customWidth="1"/>
-    <col min="2" max="2" width="10.1171875" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.87890625" customWidth="1"/>
-    <col min="6" max="6" width="13.41015625" customWidth="1"/>
-    <col min="7" max="7" width="21.29296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.87890625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.41015625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.1171875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="11">
-        <f>IF(H5+1&gt;$H$12,$H$12,H5+1)</f>
-        <v>17</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="12">
-        <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
-        <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="4">
-        <v>3</v>
-      </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="11">
-        <f>IF(H6+1&gt;$H$12,$H$12,H6+1)</f>
-        <v>16</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="12">
-        <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
-        <v>30</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="11">
-        <f>H12/2</f>
-        <v>15</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="11">
-        <f>IF(H7+1&gt;$H$12,$H$12,H7+1)</f>
-        <v>11</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="12">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="11">
-        <v>16</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="11">
-        <f>H12</f>
-        <v>30</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="G6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="11">
-        <v>15</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="11">
-        <f>H12*0.75</f>
-        <v>22.5</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="11">
-        <v>10</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="11">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="11">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="5">
-        <v>20</v>
-      </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="11">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="11">
-        <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>17</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A14" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="11">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="11">
-        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>13</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
-      <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="25">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="11">
-        <f>B8+B9</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
-      <c r="E16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="25">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="11">
-        <f>H12*15</f>
-        <v>450</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="24">
-        <f>VLOOKUP(H2,A46:B49,2,FALSE)*B45</f>
-        <v>188.5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="25">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="11">
-        <v>99</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="12">
-        <f>$D$17*0.05</f>
-        <v>9.4250000000000007</v>
-      </c>
-      <c r="E18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="25">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="4">
-        <v>60</v>
-      </c>
-      <c r="I18" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="11">
-        <f>B17/2</f>
-        <v>225</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="12">
-        <f>$D$17*0.2</f>
-        <v>37.700000000000003</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>91</v>
-      </c>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="11">
-        <f>B17/2</f>
-        <v>225</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="12">
-        <f>$D$17*0.2</f>
-        <v>37.700000000000003</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A21" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="11">
-        <f>B17/3</f>
-        <v>150</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="12">
-        <f>$D$17*0.35</f>
-        <v>65.974999999999994</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>92</v>
-      </c>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="11">
-        <f>B17/3</f>
-        <v>150</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="12">
-        <f>$D$17*0.2</f>
-        <v>37.700000000000003</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="11">
-        <f>B17/3</f>
-        <v>150</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="G23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>91</v>
-      </c>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="11">
-        <f>B17/3</f>
-        <v>150</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="G24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>92</v>
-      </c>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A25" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>92</v>
-      </c>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="11">
-        <v>2</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>92</v>
-      </c>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="11">
-        <v>1</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>92</v>
-      </c>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A28" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A29" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="14">
-        <v>1</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A30" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="14">
-        <v>5</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A31" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A32" s="18"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="19"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A33" s="18"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A45" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="14">
-        <f>IF(H4="groß",1.3,1)</f>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A46" s="14">
-        <v>1</v>
-      </c>
-      <c r="B46" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A47" s="14">
-        <v>2</v>
-      </c>
-      <c r="B47" s="14">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A48" s="14">
-        <v>3</v>
-      </c>
-      <c r="B48" s="14">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="14">
-        <v>4</v>
-      </c>
-      <c r="B49" s="15">
+      <c r="B49" s="5">
         <v>160</v>
       </c>
     </row>
@@ -3586,28 +3556,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F074AEAC-AF1C-4129-BA15-237A0D464277}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD683614-8893-4161-A156-25595201141B}">
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1171875" customWidth="1"/>
-    <col min="2" max="2" width="10.1171875" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.87890625" customWidth="1"/>
-    <col min="6" max="6" width="13.41015625" customWidth="1"/>
-    <col min="7" max="7" width="21.29296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.87890625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.41015625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.1171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -3634,224 +3604,233 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="4">
         <f>IF(H5+1&gt;$H$12,$H$12,H5+1)</f>
-        <v>10</v>
-      </c>
-      <c r="C2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="G2" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="4">
         <f>IF(H6+1&gt;$H$12,$H$12,H6+1)</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="4">
         <f>H12/2</f>
-        <v>5</v>
-      </c>
-      <c r="C4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="G4" t="s">
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="4">
         <f>IF(H7+1&gt;$H$12,$H$12,H7+1)</f>
-        <v>10</v>
-      </c>
-      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="11">
-        <v>10</v>
+      <c r="H5" s="4">
+        <v>16</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="4">
         <f>H12</f>
-        <v>10</v>
-      </c>
-      <c r="C6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="11">
-        <v>0</v>
+      <c r="H6" s="4">
+        <v>15</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="4">
         <f>H12*0.75</f>
-        <v>7.5</v>
-      </c>
-      <c r="C7" s="11" t="s">
+        <v>22.5</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="4">
         <v>10</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="11">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>71</v>
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="6" t="s">
         <v>69</v>
       </c>
       <c r="H9" s="5">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="11">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
         <v>71</v>
@@ -3860,63 +3839,63 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="13" t="s">
         <v>76</v>
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>70</v>
       </c>
       <c r="H12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="4">
         <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>9</v>
-      </c>
-      <c r="C13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>62</v>
@@ -3925,19 +3904,19 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="11">
-        <v>0</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
@@ -3946,20 +3925,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="4">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="D15" s="12"/>
       <c r="E15" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="20">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3972,20 +3950,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="4">
         <f>B8+B9</f>
         <v>0</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="12"/>
       <c r="E16" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="20">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -3998,25 +3975,25 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="4">
         <f>H12*15</f>
-        <v>150</v>
-      </c>
-      <c r="C17" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="19">
         <f>VLOOKUP(H2,A46:B49,2,FALSE)*B45</f>
-        <v>100</v>
+        <v>188.5</v>
       </c>
       <c r="E17" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="20">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -4029,51 +4006,51 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="4">
         <v>99</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <f>$D$17*0.05</f>
-        <v>5</v>
+        <v>9.4250000000000007</v>
       </c>
       <c r="E18" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="20">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="H18" s="4">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
         <v>91</v>
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="4">
         <f>B17/2</f>
-        <v>75</v>
-      </c>
-      <c r="C19" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <f>$D$17*0.2</f>
-        <v>20</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>24</v>
@@ -4086,20 +4063,20 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="4">
         <f>B17/2</f>
-        <v>75</v>
-      </c>
-      <c r="C20" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <f>$D$17*0.2</f>
-        <v>20</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>22</v>
@@ -4112,20 +4089,20 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="4">
         <f>B17/3</f>
-        <v>50</v>
-      </c>
-      <c r="C21" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <f>$D$17*0.35</f>
-        <v>35</v>
+        <v>65.974999999999994</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>20</v>
@@ -4138,20 +4115,20 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="4">
         <f>B17/3</f>
-        <v>50</v>
-      </c>
-      <c r="C22" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <f>$D$17*0.2</f>
-        <v>20</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>18</v>
@@ -4164,16 +4141,16 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="4">
         <f>B17/3</f>
-        <v>50</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+        <v>150</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="11"/>
       <c r="G23" s="4" t="s">
         <v>96</v>
       </c>
@@ -4185,16 +4162,16 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="4">
         <f>B17/3</f>
-        <v>50</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+        <v>150</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="11"/>
       <c r="G24" s="4" t="s">
         <v>14</v>
       </c>
@@ -4206,17 +4183,17 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>81</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -4230,17 +4207,17 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="4">
         <v>2</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>81</v>
       </c>
       <c r="E26" s="4"/>
@@ -4256,17 +4233,17 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="11">
-        <v>1</v>
-      </c>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F27" s="4"/>
@@ -4281,141 +4258,975 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>81</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="14">
-        <v>1</v>
-      </c>
-      <c r="C29" s="14" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>81</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A30" s="18" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="4"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A32" s="18"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="19"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="15"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A33" s="18"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A45" s="14" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45">
         <f>IF(H4="groß",1.3,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A46" s="14">
-        <v>1</v>
-      </c>
-      <c r="B46" s="14">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A47" s="14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>2</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47">
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A48" s="14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>3</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48">
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="14">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>4</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="5">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F074AEAC-AF1C-4129-BA15-237A0D464277}">
+  <dimension ref="A1:N49"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4">
+        <f>IF(H5+1&gt;$H$12,$H$12,H5+1)</f>
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="11">
+        <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4">
+        <f>IF(H6+1&gt;$H$12,$H$12,H6+1)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="11">
+        <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4">
+        <f>H12/2</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4">
+        <f>IF(H7+1&gt;$H$12,$H$12,H7+1)</f>
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="4">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4">
+        <f>H12</f>
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4">
+        <f>H12*0.75</f>
+        <v>7.5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>9</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="20">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B8+B9</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="20">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <f>H12*15</f>
+        <v>150</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="19">
+        <f>VLOOKUP(H2,A46:B49,2,FALSE)*B45</f>
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="20">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>99</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="11">
+        <f>$D$17*0.05</f>
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="20">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="4">
+        <f>B17/2</f>
+        <v>75</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="11">
+        <f>$D$17*0.2</f>
+        <v>20</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="4">
+        <f>B17/2</f>
+        <v>75</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="11">
+        <f>$D$17*0.2</f>
+        <v>20</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="4">
+        <f>B17/3</f>
+        <v>50</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="11">
+        <f>$D$17*0.35</f>
+        <v>35</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4">
+        <f>B17/3</f>
+        <v>50</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="11">
+        <f>$D$17*0.2</f>
+        <v>20</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B17/3</f>
+        <v>50</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="11"/>
+      <c r="G23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="4">
+        <f>B17/3</f>
+        <v>50</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="11"/>
+      <c r="G24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>92</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="15"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45">
+        <f>IF(H4="groß",1.3,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" s="5">
         <v>160</v>
       </c>
     </row>

--- a/Container/Data/ProfilesKonstrukte.xlsx
+++ b/Container/Data/ProfilesKonstrukte.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A230B3A-F560-457E-B230-BBFFE7AE17ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD19705D-4612-4D16-827D-091E784B26EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
   </bookViews>
@@ -606,6 +606,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -614,9 +617,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -949,16 +949,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1374,10 +1374,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="27"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="13" t="s">
         <v>76</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>66</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="D31" s="25"/>
+      <c r="D31" s="21"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>

--- a/Container/Data/ProfilesKonstrukte.xlsx
+++ b/Container/Data/ProfilesKonstrukte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD19705D-4612-4D16-827D-091E784B26EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6D53EC-8EEA-4C35-B513-4A6DBEE51118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
+    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Artilleriekonstrukt" sheetId="35" r:id="rId5"/>
     <sheet name="Konstrukt Alvis" sheetId="34" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="96">
   <si>
     <t>Lucksave</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Konstrukt</t>
   </si>
   <si>
-    <t>Resistenzen</t>
-  </si>
-  <si>
     <t>Größe</t>
   </si>
   <si>
@@ -259,15 +256,9 @@
     <t>Corpus Details</t>
   </si>
   <si>
-    <t>utility</t>
-  </si>
-  <si>
     <t>Tier</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>Core Details</t>
   </si>
   <si>
@@ -304,9 +295,6 @@
     <t>TierSchild</t>
   </si>
   <si>
-    <t>Übriges</t>
-  </si>
-  <si>
     <t>Schwert</t>
   </si>
   <si>
@@ -322,9 +310,6 @@
     <t>Groß</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>Pfeilwerfer</t>
   </si>
   <si>
@@ -337,10 +322,10 @@
     <t>Erweiterungen</t>
   </si>
   <si>
-    <t>Erweiterungen (5)</t>
-  </si>
-  <si>
     <t>Skill Level</t>
+  </si>
+  <si>
+    <t>Ladungen</t>
   </si>
 </sst>
 </file>
@@ -414,7 +399,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -551,15 +536,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -584,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -600,7 +576,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -608,7 +583,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -617,6 +591,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -941,137 +916,137 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.87890625" customWidth="1"/>
+    <col min="6" max="6" width="11.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="27"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="23"/>
+      <c r="B2" s="25"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
@@ -1086,27 +1061,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2EA3AD-C9C6-4666-8FEF-755AA0A0B732}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.1171875" customWidth="1"/>
+    <col min="2" max="2" width="10.1171875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.87890625" customWidth="1"/>
+    <col min="6" max="6" width="13.41015625" customWidth="1"/>
+    <col min="7" max="7" width="21.3515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.87890625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.41015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -1120,20 +1095,20 @@
         <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
@@ -1145,22 +1120,18 @@
         <v>33</v>
       </c>
       <c r="D2" s="11">
-        <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
-        <v>1</v>
+        <f>H15</f>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1</v>
+      <c r="F2" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
@@ -1172,23 +1143,25 @@
         <v>31</v>
       </c>
       <c r="D3" s="11">
-        <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
-        <v>1</v>
+        <f t="shared" ref="D3:D14" si="0">H16</f>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>94</v>
+        <v>72</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -1201,21 +1174,21 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
         <v>67</v>
       </c>
-      <c r="H4" t="s">
-        <v>68</v>
-      </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -1228,12 +1201,14 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
@@ -1243,7 +1218,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -1256,7 +1231,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -1268,7 +1243,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -1281,10 +1256,10 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>30</v>
@@ -1295,7 +1270,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -1307,14 +1282,14 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -1326,20 +1301,20 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="5">
         <v>0</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -1347,20 +1322,20 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -1372,18 +1347,18 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="23"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="21"/>
       <c r="G11" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -1395,16 +1370,16 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -1417,7 +1392,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>62</v>
@@ -1426,7 +1401,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -1438,16 +1413,16 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -1455,11 +1430,19 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="C15" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="12" t="str">
+        <f>H4</f>
+        <v>Mittel</v>
+      </c>
       <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="20"/>
+        <v>81</v>
+      </c>
+      <c r="F15" s="19">
+        <v>2</v>
+      </c>
       <c r="G15" s="4" t="s">
         <v>33</v>
       </c>
@@ -1467,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -1475,11 +1458,19 @@
         <f>B8+B9</f>
         <v>0</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="C16" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="12">
+        <f>H12</f>
+        <v>1</v>
+      </c>
       <c r="E16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2</v>
+      </c>
       <c r="G16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1487,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -1498,14 +1489,16 @@
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="19">
-        <f>VLOOKUP(H2,A46:B49,2,FALSE)*B45</f>
+      <c r="D17" s="18">
+        <f>VLOOKUP(H3,A42:B45,2,FALSE)*B41</f>
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
       <c r="G17" s="4" t="s">
         <v>29</v>
       </c>
@@ -1513,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1528,9 +1521,11 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="20"/>
+        <v>84</v>
+      </c>
+      <c r="F18" s="19">
+        <v>2</v>
+      </c>
       <c r="G18" s="4" t="s">
         <v>26</v>
       </c>
@@ -1539,7 +1534,7 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -1562,7 +1557,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -1585,7 +1580,7 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -1608,7 +1603,7 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
@@ -1631,7 +1626,7 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
@@ -1639,17 +1634,22 @@
         <f>B17/3</f>
         <v>5</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="11">
+        <f>H9</f>
+        <v>0</v>
+      </c>
       <c r="G23" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
@@ -1657,8 +1657,13 @@
         <f>B17/3</f>
         <v>5</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="11">
+        <f>H3</f>
+        <v>1</v>
+      </c>
       <c r="G24" s="4" t="s">
         <v>14</v>
       </c>
@@ -1667,7 +1672,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -1678,7 +1683,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
@@ -1688,7 +1693,7 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -1699,7 +1704,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1711,7 +1716,7 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -1722,7 +1727,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -1733,23 +1738,23 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
@@ -1760,113 +1765,94 @@
         <v>59</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="16">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="D31" s="21"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="15"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41">
         <f>IF(H4="groß",1.3,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A42">
         <v>1</v>
       </c>
-      <c r="B46">
+      <c r="B42">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A43">
         <v>2</v>
       </c>
-      <c r="B47">
+      <c r="B43">
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A44">
         <v>3</v>
       </c>
-      <c r="B48">
+      <c r="B44">
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A45">
         <v>4</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B45" s="5">
         <v>160</v>
       </c>
     </row>
@@ -1877,27 +1863,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099EDC41-F32E-4F97-83B4-1AAF1E4747F1}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E22" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.1171875" customWidth="1"/>
+    <col min="2" max="2" width="10.1171875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.87890625" customWidth="1"/>
+    <col min="6" max="6" width="13.41015625" customWidth="1"/>
+    <col min="7" max="7" width="21.3515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.87890625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.41015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -1911,20 +1897,20 @@
         <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
@@ -1936,24 +1922,18 @@
         <v>33</v>
       </c>
       <c r="D2" s="11">
-        <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
+        <f>H15</f>
         <v>45</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
@@ -1965,25 +1945,25 @@
         <v>31</v>
       </c>
       <c r="D3" s="11">
-        <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
-        <v>20</v>
+        <f t="shared" ref="D3:D14" si="0">H16</f>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>94</v>
+        <v>72</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -2003,14 +1983,14 @@
       </c>
       <c r="F4" s="4"/>
       <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
         <v>67</v>
       </c>
-      <c r="H4" t="s">
-        <v>68</v>
-      </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -2023,7 +2003,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>48</v>
@@ -2040,7 +2020,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -2053,7 +2033,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -2065,7 +2045,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -2078,10 +2058,10 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>30</v>
@@ -2092,7 +2072,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -2104,14 +2084,14 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -2123,20 +2103,20 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="5">
         <v>15</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -2144,20 +2124,20 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -2169,17 +2149,17 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -2191,16 +2171,16 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -2213,7 +2193,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>62</v>
@@ -2222,7 +2202,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -2234,16 +2214,16 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -2253,9 +2233,9 @@
       </c>
       <c r="D15" s="12"/>
       <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="20">
+        <v>81</v>
+      </c>
+      <c r="F15" s="19">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2265,10 +2245,10 @@
         <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -2278,9 +2258,9 @@
       </c>
       <c r="D16" s="12"/>
       <c r="E16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="20">
+        <v>82</v>
+      </c>
+      <c r="F16" s="19">
         <v>2</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -2290,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -2304,14 +2284,14 @@
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="19">
-        <f>VLOOKUP(H2,A46:B49,2,FALSE)*B45</f>
+      <c r="D17" s="18">
+        <f>VLOOKUP(H3,A42:B45,2,FALSE)*B41</f>
         <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="20">
+        <v>83</v>
+      </c>
+      <c r="F17" s="19">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -2321,10 +2301,10 @@
         <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -2339,9 +2319,9 @@
         <v>6.5</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="20">
+        <v>84</v>
+      </c>
+      <c r="F18" s="19">
         <v>2</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -2351,11 +2331,11 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -2377,11 +2357,11 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -2403,11 +2383,11 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -2429,11 +2409,11 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
@@ -2455,11 +2435,11 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
@@ -2470,17 +2450,17 @@
       <c r="C23" s="4"/>
       <c r="D23" s="11"/>
       <c r="G23" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
@@ -2497,11 +2477,11 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -2512,7 +2492,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
@@ -2521,11 +2501,11 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -2536,7 +2516,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2547,11 +2527,11 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -2562,7 +2542,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -2572,27 +2552,27 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
@@ -2603,112 +2583,94 @@
         <v>59</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="16">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="4"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="15"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41">
         <f>IF(H4="groß",1.3,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A42">
         <v>1</v>
       </c>
-      <c r="B46">
+      <c r="B42">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A43">
         <v>2</v>
       </c>
-      <c r="B47">
+      <c r="B43">
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A44">
         <v>3</v>
       </c>
-      <c r="B48">
+      <c r="B44">
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A45">
         <v>4</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B45" s="5">
         <v>160</v>
       </c>
     </row>
@@ -2720,27 +2682,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F754FB3-C6ED-4A06-B3B4-97217FAE25BD}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.1171875" customWidth="1"/>
+    <col min="2" max="2" width="10.1171875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.87890625" customWidth="1"/>
+    <col min="6" max="6" width="13.41015625" customWidth="1"/>
+    <col min="7" max="7" width="21.3515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.87890625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.41015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2754,20 +2716,20 @@
         <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
@@ -2779,24 +2741,18 @@
         <v>33</v>
       </c>
       <c r="D2" s="11">
-        <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
+        <f>H15</f>
         <v>60</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="4">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
@@ -2808,23 +2764,23 @@
         <v>31</v>
       </c>
       <c r="D3" s="11">
-        <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
-        <v>30</v>
+        <f t="shared" ref="D3:D14" si="0">H16</f>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>94</v>
+        <v>72</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -2837,21 +2793,21 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -2864,7 +2820,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>48</v>
@@ -2879,7 +2835,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -2892,7 +2848,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -2904,7 +2860,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -2917,10 +2873,10 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>30</v>
@@ -2931,7 +2887,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -2943,14 +2899,14 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -2962,20 +2918,20 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="5">
         <v>20</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -2983,20 +2939,20 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -3008,17 +2964,17 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3030,16 +2986,16 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -3052,7 +3008,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>62</v>
@@ -3061,7 +3017,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -3073,16 +3029,16 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -3092,9 +3048,9 @@
       </c>
       <c r="D15" s="12"/>
       <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="20">
+        <v>81</v>
+      </c>
+      <c r="F15" s="19">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3104,10 +3060,10 @@
         <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -3117,9 +3073,9 @@
       </c>
       <c r="D16" s="12"/>
       <c r="E16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="20">
+        <v>82</v>
+      </c>
+      <c r="F16" s="19">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -3129,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -3143,14 +3099,14 @@
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="19">
-        <f>VLOOKUP(H2,A46:B49,2,FALSE)*B45</f>
+      <c r="D17" s="18">
+        <f>VLOOKUP(H3,A42:B45,2,FALSE)*B41</f>
         <v>188.5</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="20">
+        <v>83</v>
+      </c>
+      <c r="F17" s="19">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -3160,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -3178,9 +3134,9 @@
         <v>9.4250000000000007</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="20">
+        <v>84</v>
+      </c>
+      <c r="F18" s="19">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -3188,11 +3144,11 @@
       </c>
       <c r="H18" s="4"/>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -3214,11 +3170,11 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -3240,11 +3196,11 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -3266,11 +3222,11 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
@@ -3292,11 +3248,11 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
@@ -3307,17 +3263,17 @@
       <c r="C23" s="4"/>
       <c r="D23" s="11"/>
       <c r="G23" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
@@ -3334,11 +3290,11 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -3349,7 +3305,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
@@ -3358,11 +3314,11 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -3373,7 +3329,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -3384,11 +3340,11 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -3399,7 +3355,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -3409,27 +3365,27 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
@@ -3440,112 +3396,94 @@
         <v>59</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="16">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="4"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="15"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41">
         <f>IF(H4="groß",1.3,1)</f>
         <v>1.3</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A42">
         <v>1</v>
       </c>
-      <c r="B46">
+      <c r="B42">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A43">
         <v>2</v>
       </c>
-      <c r="B47">
+      <c r="B43">
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A44">
         <v>3</v>
       </c>
-      <c r="B48">
+      <c r="B44">
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A45">
         <v>4</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B45" s="5">
         <v>160</v>
       </c>
     </row>
@@ -3557,27 +3495,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD683614-8893-4161-A156-25595201141B}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.1171875" customWidth="1"/>
+    <col min="2" max="2" width="10.1171875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.87890625" customWidth="1"/>
+    <col min="6" max="6" width="13.41015625" customWidth="1"/>
+    <col min="7" max="7" width="21.3515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.87890625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.41015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -3591,20 +3529,20 @@
         <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
@@ -3616,24 +3554,18 @@
         <v>33</v>
       </c>
       <c r="D2" s="11">
-        <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
-        <v>30</v>
+        <f>H15</f>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="4">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
@@ -3645,25 +3577,25 @@
         <v>31</v>
       </c>
       <c r="D3" s="11">
-        <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
-        <v>30</v>
+        <f t="shared" ref="D3:D14" si="0">H16</f>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>94</v>
+        <v>72</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -3676,23 +3608,23 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -3722,7 +3654,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -3735,7 +3667,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -3747,7 +3679,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -3760,10 +3692,10 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>30</v>
@@ -3774,7 +3706,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -3786,14 +3718,14 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -3805,20 +3737,20 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="5">
         <v>20</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -3826,20 +3758,20 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -3851,17 +3783,17 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3873,16 +3805,16 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -3895,7 +3827,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>62</v>
@@ -3904,7 +3836,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -3916,16 +3848,16 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -3935,9 +3867,9 @@
       </c>
       <c r="D15" s="12"/>
       <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="20">
+        <v>81</v>
+      </c>
+      <c r="F15" s="19">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3947,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -3960,9 +3892,9 @@
       </c>
       <c r="D16" s="12"/>
       <c r="E16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="20">
+        <v>82</v>
+      </c>
+      <c r="F16" s="19">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -3972,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -3986,14 +3918,14 @@
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="19">
-        <f>VLOOKUP(H2,A46:B49,2,FALSE)*B45</f>
+      <c r="D17" s="18">
+        <f>VLOOKUP(H3,A42:B45,2,FALSE)*B41</f>
         <v>188.5</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="20">
+        <v>83</v>
+      </c>
+      <c r="F17" s="19">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -4003,10 +3935,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -4021,9 +3953,9 @@
         <v>9.4250000000000007</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="20">
+        <v>84</v>
+      </c>
+      <c r="F18" s="19">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -4033,11 +3965,11 @@
         <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -4059,11 +3991,11 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -4085,11 +4017,11 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -4111,11 +4043,11 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
@@ -4137,11 +4069,11 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
@@ -4152,17 +4084,17 @@
       <c r="C23" s="4"/>
       <c r="D23" s="11"/>
       <c r="G23" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
@@ -4179,11 +4111,11 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -4194,7 +4126,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
@@ -4203,11 +4135,11 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -4218,7 +4150,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -4229,11 +4161,11 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -4244,7 +4176,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -4254,27 +4186,27 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
@@ -4285,112 +4217,94 @@
         <v>59</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="16">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="4"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="15"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41">
         <f>IF(H4="groß",1.3,1)</f>
         <v>1.3</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A42">
         <v>1</v>
       </c>
-      <c r="B46">
+      <c r="B42">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A43">
         <v>2</v>
       </c>
-      <c r="B47">
+      <c r="B43">
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A44">
         <v>3</v>
       </c>
-      <c r="B48">
+      <c r="B44">
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A45">
         <v>4</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B45" s="5">
         <v>160</v>
       </c>
     </row>
@@ -4402,27 +4316,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F074AEAC-AF1C-4129-BA15-237A0D464277}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.1171875" customWidth="1"/>
+    <col min="2" max="2" width="10.1171875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.87890625" customWidth="1"/>
+    <col min="6" max="6" width="13.41015625" customWidth="1"/>
+    <col min="7" max="7" width="21.3515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.87890625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.41015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -4436,20 +4350,20 @@
         <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
@@ -4461,22 +4375,16 @@
         <v>33</v>
       </c>
       <c r="D2" s="11">
-        <f t="shared" ref="D2:D14" si="0">IF(AND($H$3="True", H15&gt;50),"50",IF($H$12&gt;H15,$H$12,H15))</f>
-        <v>10</v>
+        <f>H15</f>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
@@ -4488,23 +4396,23 @@
         <v>31</v>
       </c>
       <c r="D3" s="11">
-        <f>IF(AND($H$3="True", H16&gt;50),"50",IF($H$12&gt;H16,$H$12,H16))</f>
-        <v>10</v>
+        <f t="shared" ref="D3:D14" si="0">H16</f>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -4517,20 +4425,20 @@
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
         <v>67</v>
       </c>
-      <c r="H4" t="s">
-        <v>68</v>
-      </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -4543,7 +4451,7 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>48</v>
@@ -4558,7 +4466,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -4571,7 +4479,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4"/>
       <c r="G6" s="4" t="s">
@@ -4583,7 +4491,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -4596,10 +4504,10 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>30</v>
@@ -4610,7 +4518,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -4622,14 +4530,14 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -4641,20 +4549,20 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="5">
         <v>5</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -4662,20 +4570,20 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -4687,17 +4595,17 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -4709,16 +4617,16 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -4731,7 +4639,7 @@
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>62</v>
@@ -4740,7 +4648,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -4752,16 +4660,16 @@
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -4771,9 +4679,9 @@
       </c>
       <c r="D15" s="12"/>
       <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="20">
+        <v>81</v>
+      </c>
+      <c r="F15" s="19">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -4783,10 +4691,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -4796,9 +4704,9 @@
       </c>
       <c r="D16" s="12"/>
       <c r="E16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="20">
+        <v>82</v>
+      </c>
+      <c r="F16" s="19">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -4808,10 +4716,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -4822,14 +4730,14 @@
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="19">
-        <f>VLOOKUP(H2,A46:B49,2,FALSE)*B45</f>
+      <c r="D17" s="18">
+        <f>VLOOKUP(H3,A42:B45,2,FALSE)*B41</f>
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="20">
+        <v>83</v>
+      </c>
+      <c r="F17" s="19">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -4839,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -4857,9 +4765,9 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="20">
+        <v>84</v>
+      </c>
+      <c r="F18" s="19">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -4869,11 +4777,11 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -4895,11 +4803,11 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -4921,11 +4829,11 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -4947,11 +4855,11 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
@@ -4973,11 +4881,11 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
@@ -4988,17 +4896,17 @@
       <c r="C23" s="4"/>
       <c r="D23" s="11"/>
       <c r="G23" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
@@ -5015,11 +4923,11 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -5030,7 +4938,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
@@ -5039,11 +4947,11 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -5054,7 +4962,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -5065,11 +4973,11 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -5080,7 +4988,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -5090,27 +4998,27 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
@@ -5121,112 +5029,94 @@
         <v>59</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="16">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="4"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="15"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41">
         <f>IF(H4="groß",1.3,1)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A42">
         <v>1</v>
       </c>
-      <c r="B46">
+      <c r="B42">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A43">
         <v>2</v>
       </c>
-      <c r="B47">
+      <c r="B43">
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A44">
         <v>3</v>
       </c>
-      <c r="B48">
+      <c r="B44">
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A45">
         <v>4</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B45" s="5">
         <v>160</v>
       </c>
     </row>

--- a/Container/Data/ProfilesKonstrukte.xlsx
+++ b/Container/Data/ProfilesKonstrukte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6D53EC-8EEA-4C35-B513-4A6DBEE51118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C4D85C-967E-4A41-BA21-D1F7F3A81EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8100" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Angriffskonstruktklein" sheetId="36" r:id="rId3"/>
     <sheet name="Dampfgolem" sheetId="38" r:id="rId4"/>
     <sheet name="Artilleriekonstrukt" sheetId="35" r:id="rId5"/>
-    <sheet name="Konstrukt Alvis" sheetId="34" r:id="rId6"/>
+    <sheet name="Soldat Konstrukt" sheetId="40" r:id="rId6"/>
+    <sheet name="Konstrukt Alvis" sheetId="34" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="96">
   <si>
     <t>Lucksave</t>
   </si>
@@ -560,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -591,7 +592,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -916,14 +916,14 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.52734375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.87890625" customWidth="1"/>
-    <col min="6" max="6" width="11.52734375" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>40</v>
       </c>
@@ -931,19 +931,19 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="25"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>76</v>
       </c>
@@ -951,102 +951,102 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
@@ -1063,25 +1063,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2EA3AD-C9C6-4666-8FEF-755AA0A0B732}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1171875" customWidth="1"/>
-    <col min="2" max="2" width="10.1171875" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.87890625" customWidth="1"/>
-    <col min="6" max="6" width="13.41015625" customWidth="1"/>
-    <col min="7" max="7" width="21.3515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.87890625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.41015625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.1171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
@@ -1161,7 +1161,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -1270,7 +1270,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -1430,7 +1430,7 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>1</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="12" t="str">
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -1458,7 +1458,7 @@
         <f>B8+B9</f>
         <v>0</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="12">
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
@@ -1784,38 +1784,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1866,24 +1866,24 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1171875" customWidth="1"/>
-    <col min="2" max="2" width="10.1171875" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.87890625" customWidth="1"/>
-    <col min="6" max="6" width="13.41015625" customWidth="1"/>
-    <col min="7" max="7" width="21.3515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.87890625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.41015625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.1171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
@@ -1963,7 +1963,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -2020,7 +2020,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -2045,7 +2045,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -2072,7 +2072,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -2137,7 +2137,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -2231,7 +2231,13 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>11</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="12" t="str">
+        <f>H4</f>
+        <v>Mittel</v>
+      </c>
       <c r="E15" t="s">
         <v>81</v>
       </c>
@@ -2248,7 +2254,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -2256,7 +2262,13 @@
         <f>B8+B9</f>
         <v>0</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="C16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="12">
+        <f>H12</f>
+        <v>20</v>
+      </c>
       <c r="E16" t="s">
         <v>82</v>
       </c>
@@ -2273,7 +2285,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -2304,7 +2316,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -2335,7 +2347,7 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -2361,7 +2373,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -2387,7 +2399,7 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -2413,7 +2425,7 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
@@ -2439,7 +2451,7 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
@@ -2447,8 +2459,13 @@
         <f>B17/3</f>
         <v>100</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="11">
+        <f>H9</f>
+        <v>15</v>
+      </c>
       <c r="G23" s="4" t="s">
         <v>91</v>
       </c>
@@ -2460,7 +2477,7 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
@@ -2468,8 +2485,13 @@
         <f>B17/3</f>
         <v>100</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="11">
+        <f>H3</f>
+        <v>2</v>
+      </c>
       <c r="G24" s="4" t="s">
         <v>14</v>
       </c>
@@ -2481,7 +2503,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -2505,7 +2527,7 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -2531,7 +2553,7 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -2556,7 +2578,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
@@ -2572,7 +2594,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
@@ -2588,7 +2610,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
@@ -2602,38 +2624,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -2642,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2650,7 +2672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -2658,7 +2680,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2666,7 +2688,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -2685,24 +2707,24 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1171875" customWidth="1"/>
-    <col min="2" max="2" width="10.1171875" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.87890625" customWidth="1"/>
-    <col min="6" max="6" width="13.41015625" customWidth="1"/>
-    <col min="7" max="7" width="21.3515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.87890625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.41015625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.1171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2729,7 +2751,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
@@ -2752,7 +2774,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
@@ -2780,7 +2802,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -2807,7 +2829,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -2835,7 +2857,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -2860,7 +2882,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -2887,7 +2909,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -2906,7 +2928,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -2931,7 +2953,7 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -2952,7 +2974,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -2974,7 +2996,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -2995,7 +3017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -3017,7 +3039,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -3038,7 +3060,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -3046,7 +3068,13 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>13</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="12" t="str">
+        <f>H4</f>
+        <v>Groß</v>
+      </c>
       <c r="E15" t="s">
         <v>81</v>
       </c>
@@ -3059,11 +3087,8 @@
       <c r="H15" s="4">
         <v>60</v>
       </c>
-      <c r="I15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -3071,7 +3096,13 @@
         <f>B8+B9</f>
         <v>0</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="C16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="12">
+        <f>H12</f>
+        <v>30</v>
+      </c>
       <c r="E16" t="s">
         <v>82</v>
       </c>
@@ -3084,11 +3115,8 @@
       <c r="H16" s="4">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -3115,11 +3143,8 @@
       <c r="H17" s="4">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -3143,12 +3168,9 @@
         <v>26</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="I18" t="s">
-        <v>87</v>
-      </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -3169,12 +3191,9 @@
       <c r="H19" s="4">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>87</v>
-      </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -3195,12 +3214,9 @@
       <c r="H20" s="4">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>88</v>
-      </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -3221,12 +3237,9 @@
       <c r="H21" s="4">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>88</v>
-      </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
@@ -3247,12 +3260,9 @@
       <c r="H22" s="4">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>88</v>
-      </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
@@ -3260,20 +3270,22 @@
         <f>B17/3</f>
         <v>150</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="11">
+        <f>H9</f>
+        <v>20</v>
+      </c>
       <c r="G23" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
-        <v>87</v>
-      </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
@@ -3281,20 +3293,22 @@
         <f>B17/3</f>
         <v>150</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="11">
+        <f>H3</f>
+        <v>3</v>
+      </c>
       <c r="G24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
-        <v>88</v>
-      </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -3313,12 +3327,9 @@
       <c r="H25" s="4">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>88</v>
-      </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -3339,12 +3350,9 @@
       <c r="H26" s="4">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
-        <v>88</v>
-      </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -3364,12 +3372,9 @@
       <c r="H27" s="4">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>88</v>
-      </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
@@ -3385,7 +3390,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
@@ -3401,7 +3406,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
@@ -3415,38 +3420,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -3455,7 +3460,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3463,7 +3468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3471,7 +3476,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3479,7 +3484,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3498,24 +3503,24 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A41" sqref="A41:B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1171875" customWidth="1"/>
-    <col min="2" max="2" width="10.1171875" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.87890625" customWidth="1"/>
-    <col min="6" max="6" width="13.41015625" customWidth="1"/>
-    <col min="7" max="7" width="21.3515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.87890625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.41015625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.1171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -3542,7 +3547,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
@@ -3565,7 +3570,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
@@ -3595,7 +3600,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -3624,7 +3629,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -3654,7 +3659,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -3679,7 +3684,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -3706,7 +3711,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -3725,7 +3730,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -3750,7 +3755,7 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -3771,7 +3776,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -3793,7 +3798,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3814,7 +3819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -3836,7 +3841,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -3857,7 +3862,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -3865,7 +3870,13 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>13</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="12" t="str">
+        <f>H4</f>
+        <v>Groß</v>
+      </c>
       <c r="E15" t="s">
         <v>81</v>
       </c>
@@ -3878,11 +3889,8 @@
       <c r="H15" s="4">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -3890,7 +3898,13 @@
         <f>B8+B9</f>
         <v>0</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="C16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="12">
+        <f>H12</f>
+        <v>30</v>
+      </c>
       <c r="E16" t="s">
         <v>82</v>
       </c>
@@ -3903,11 +3917,8 @@
       <c r="H16" s="4">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -3934,11 +3945,8 @@
       <c r="H17" s="4">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -3964,12 +3972,9 @@
       <c r="H18" s="4">
         <v>60</v>
       </c>
-      <c r="I18" t="s">
-        <v>87</v>
-      </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -3990,12 +3995,9 @@
       <c r="H19" s="4">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>87</v>
-      </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -4016,12 +4018,9 @@
       <c r="H20" s="4">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>88</v>
-      </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -4042,12 +4041,9 @@
       <c r="H21" s="4">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>88</v>
-      </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
@@ -4068,12 +4064,9 @@
       <c r="H22" s="4">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>88</v>
-      </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
@@ -4081,20 +4074,22 @@
         <f>B17/3</f>
         <v>150</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="11">
+        <f>H9</f>
+        <v>20</v>
+      </c>
       <c r="G23" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
-        <v>87</v>
-      </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
@@ -4102,20 +4097,22 @@
         <f>B17/3</f>
         <v>150</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="11">
+        <f>H3</f>
+        <v>3</v>
+      </c>
       <c r="G24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
-        <v>88</v>
-      </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -4134,12 +4131,9 @@
       <c r="H25" s="4">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>88</v>
-      </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -4160,12 +4154,9 @@
       <c r="H26" s="4">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
-        <v>88</v>
-      </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -4185,12 +4176,9 @@
       <c r="H27" s="4">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>88</v>
-      </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
@@ -4206,7 +4194,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
@@ -4222,7 +4210,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
@@ -4236,38 +4224,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -4276,7 +4264,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -4284,7 +4272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -4292,7 +4280,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -4300,7 +4288,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -4315,28 +4303,757 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE85F9B-C728-41A4-9A98-BEBDB1924627}">
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4">
+        <f>IF(H5+1&gt;$H$12,$H$12,H5+1)</f>
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="11">
+        <f>H15</f>
+        <v>60</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4">
+        <f>IF(H6+1&gt;$H$12,$H$12,H6+1)</f>
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D14" si="0">H16</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4">
+        <f>H12/2</f>
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4">
+        <f>IF(H7+1&gt;$H$12,$H$12,H7+1)</f>
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4">
+        <f>H12</f>
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4">
+        <f>H12*0.75</f>
+        <v>22.5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>16</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="12" t="str">
+        <f>H4</f>
+        <v>Groß</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="19">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B8+B9</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="12">
+        <f>H12</f>
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="19">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <f>H12*15</f>
+        <v>450</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="18">
+        <f>VLOOKUP(H3,A42:B45,2,FALSE)*B41</f>
+        <v>188.5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
+        <v>99</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="11">
+        <f>$D$17*0.05</f>
+        <v>9.4250000000000007</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="19">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="4">
+        <f>B17/2</f>
+        <v>225</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="11">
+        <f>$D$17*0.2</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="4">
+        <f>B17/2</f>
+        <v>225</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="11">
+        <f>$D$17*0.2</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="4">
+        <f>B17/3</f>
+        <v>150</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="11">
+        <f>$D$17*0.35</f>
+        <v>65.974999999999994</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4">
+        <f>B17/3</f>
+        <v>150</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="11">
+        <f>$D$17*0.2</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B17/3</f>
+        <v>150</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="11">
+        <f>H9</f>
+        <v>20</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="4">
+        <f>B17/3</f>
+        <v>150</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="11">
+        <f>H3</f>
+        <v>3</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="16">
+        <v>5</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41">
+        <f>IF(H4="groß",1.3,1)</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" s="5">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F074AEAC-AF1C-4129-BA15-237A0D464277}">
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.87890625" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1171875" customWidth="1"/>
-    <col min="2" max="2" width="10.1171875" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.87890625" customWidth="1"/>
-    <col min="6" max="6" width="13.41015625" customWidth="1"/>
-    <col min="7" max="7" width="21.3515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.87890625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.41015625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.1171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -4363,7 +5080,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
@@ -4384,7 +5101,7 @@
       <c r="F2" s="4"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
@@ -4412,7 +5129,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -4438,7 +5155,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -4466,7 +5183,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -4491,7 +5208,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -4518,7 +5235,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -4537,7 +5254,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -4562,7 +5279,7 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -4583,7 +5300,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -4605,7 +5322,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -4626,7 +5343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -4648,7 +5365,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -4669,7 +5386,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -4677,7 +5394,13 @@
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
         <v>9</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="C15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="12" t="str">
+        <f>H4</f>
+        <v>Mittel</v>
+      </c>
       <c r="E15" t="s">
         <v>81</v>
       </c>
@@ -4690,11 +5413,8 @@
       <c r="H15" s="4">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -4702,7 +5422,13 @@
         <f>B8+B9</f>
         <v>0</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="C16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="12">
+        <f>H12</f>
+        <v>10</v>
+      </c>
       <c r="E16" t="s">
         <v>82</v>
       </c>
@@ -4715,11 +5441,8 @@
       <c r="H16" s="4">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -4746,11 +5469,8 @@
       <c r="H17" s="4">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -4776,12 +5496,9 @@
       <c r="H18" s="4">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
-        <v>87</v>
-      </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -4802,12 +5519,9 @@
       <c r="H19" s="4">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>87</v>
-      </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -4828,12 +5542,9 @@
       <c r="H20" s="4">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>88</v>
-      </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -4854,12 +5565,9 @@
       <c r="H21" s="4">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>88</v>
-      </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
@@ -4880,12 +5588,9 @@
       <c r="H22" s="4">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>88</v>
-      </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
@@ -4893,20 +5598,22 @@
         <f>B17/3</f>
         <v>50</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="11">
+        <f>H9</f>
+        <v>5</v>
+      </c>
       <c r="G23" s="4" t="s">
         <v>91</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
-        <v>87</v>
-      </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
@@ -4914,20 +5621,22 @@
         <f>B17/3</f>
         <v>50</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="11">
+        <f>H3</f>
+        <v>1</v>
+      </c>
       <c r="G24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="4">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
-        <v>88</v>
-      </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -4946,12 +5655,9 @@
       <c r="H25" s="4">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>88</v>
-      </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -4972,12 +5678,9 @@
       <c r="H26" s="4">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
-        <v>88</v>
-      </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -4997,12 +5700,9 @@
       <c r="H27" s="4">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>88</v>
-      </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
@@ -5018,7 +5718,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
@@ -5034,7 +5734,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
@@ -5048,38 +5748,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -5088,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -5096,7 +5796,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -5104,7 +5804,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -5112,7 +5812,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>

--- a/Container/Data/ProfilesKonstrukte.xlsx
+++ b/Container/Data/ProfilesKonstrukte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C4D85C-967E-4A41-BA21-D1F7F3A81EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C74A9CD-9230-4E7E-829B-FFBF3B64B62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Dampfgolem" sheetId="38" r:id="rId4"/>
     <sheet name="Artilleriekonstrukt" sheetId="35" r:id="rId5"/>
     <sheet name="Soldat Konstrukt" sheetId="40" r:id="rId6"/>
-    <sheet name="Konstrukt Alvis" sheetId="34" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="94">
   <si>
     <t>Lucksave</t>
   </si>
@@ -300,12 +299,6 @@
   </si>
   <si>
     <t>Großschwert</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Groß</t>
@@ -333,7 +326,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,12 +374,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -916,14 +903,14 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>40</v>
       </c>
@@ -931,19 +918,19 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
       <c r="B2" s="25"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>76</v>
       </c>
@@ -951,102 +938,102 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
     </row>
@@ -1067,21 +1054,21 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -1095,7 +1082,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>41</v>
@@ -1108,7 +1095,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
@@ -1131,7 +1118,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
@@ -1161,7 +1148,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -1188,7 +1175,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -1218,7 +1205,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -1243,7 +1230,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -1270,7 +1257,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -1289,7 +1276,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -1314,7 +1301,7 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -1322,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -1335,7 +1322,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -1358,7 +1345,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -1379,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -1401,7 +1388,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -1419,10 +1406,10 @@
         <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -1450,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -1506,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -1534,7 +1521,7 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -1557,7 +1544,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -1580,7 +1567,7 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -1603,7 +1590,7 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
@@ -1626,7 +1613,7 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
@@ -1635,21 +1622,21 @@
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23" s="11">
         <f>H9</f>
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
@@ -1672,7 +1659,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -1693,7 +1680,7 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -1716,7 +1703,7 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -1738,7 +1725,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
@@ -1754,7 +1741,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
@@ -1770,7 +1757,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
@@ -1784,38 +1771,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -1824,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1832,7 +1819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1840,7 +1827,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1848,7 +1835,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1863,27 +1850,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099EDC41-F32E-4F97-83B4-1AAF1E4747F1}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="45.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -1897,7 +1884,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>41</v>
@@ -1908,9 +1895,9 @@
       <c r="H1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
@@ -1931,9 +1918,9 @@
       <c r="F2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
@@ -1960,10 +1947,10 @@
       <c r="H3" s="4">
         <v>2</v>
       </c>
+      <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -1988,9 +1975,9 @@
       <c r="H4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -2017,10 +2004,10 @@
       <c r="H5" s="4">
         <v>14</v>
       </c>
+      <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -2042,10 +2029,10 @@
       <c r="H6" s="4">
         <v>4</v>
       </c>
+      <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -2069,10 +2056,10 @@
       <c r="H7" s="4">
         <v>10</v>
       </c>
+      <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -2089,9 +2076,9 @@
       <c r="E8" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -2114,9 +2101,9 @@
       <c r="H9" s="5">
         <v>15</v>
       </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -2124,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -2133,11 +2120,11 @@
       <c r="E10" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -2157,9 +2144,9 @@
       <c r="G11" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -2180,7 +2167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -2202,7 +2189,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -2223,7 +2210,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -2250,11 +2237,8 @@
       <c r="H15" s="4">
         <v>45</v>
       </c>
-      <c r="I15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -2281,11 +2265,8 @@
       <c r="H16" s="4">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -2312,11 +2293,8 @@
       <c r="H17" s="4">
         <v>35</v>
       </c>
-      <c r="I17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -2342,12 +2320,9 @@
       <c r="H18" s="4">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -2368,12 +2343,9 @@
       <c r="H19" s="4">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>87</v>
-      </c>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -2394,12 +2366,9 @@
       <c r="H20" s="4">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -2420,12 +2389,9 @@
       <c r="H21" s="4">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>88</v>
-      </c>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
@@ -2446,12 +2412,9 @@
       <c r="H22" s="4">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>88</v>
-      </c>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
@@ -2460,24 +2423,21 @@
         <v>100</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23" s="11">
         <f>H9</f>
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
@@ -2498,12 +2458,9 @@
       <c r="H24" s="4">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
-        <v>88</v>
-      </c>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -2522,12 +2479,9 @@
       <c r="H25" s="4">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -2548,12 +2502,9 @@
       <c r="H26" s="4">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
-        <v>88</v>
-      </c>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -2573,12 +2524,9 @@
       <c r="H27" s="4">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>88</v>
-      </c>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
@@ -2591,10 +2539,10 @@
       <c r="D28" s="12" t="s">
         <v>78</v>
       </c>
+      <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
@@ -2607,10 +2555,10 @@
       <c r="D29" s="12" t="s">
         <v>78</v>
       </c>
+      <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
@@ -2624,38 +2572,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -2664,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2672,7 +2619,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -2680,7 +2627,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2688,7 +2635,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -2710,21 +2657,21 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2738,7 +2685,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>41</v>
@@ -2751,7 +2698,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
@@ -2770,11 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
@@ -2802,7 +2749,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -2825,11 +2772,11 @@
         <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -2857,7 +2804,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -2882,7 +2829,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -2909,7 +2856,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -2928,7 +2875,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -2953,7 +2900,7 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -2961,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -2974,7 +2921,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -2996,7 +2943,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3017,7 +2964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -3039,7 +2986,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -3060,7 +3007,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -3088,7 +3035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -3116,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -3144,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -3170,7 +3117,7 @@
       <c r="H18" s="4"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -3193,7 +3140,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -3216,7 +3163,7 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -3239,7 +3186,7 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
@@ -3262,7 +3209,7 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
@@ -3271,21 +3218,21 @@
         <v>150</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23" s="11">
         <f>H9</f>
         <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
@@ -3308,7 +3255,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -3329,7 +3276,7 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -3352,7 +3299,7 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -3374,7 +3321,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
@@ -3390,7 +3337,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
@@ -3406,7 +3353,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
@@ -3420,38 +3367,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -3460,7 +3407,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3468,7 +3415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3476,7 +3423,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3484,7 +3431,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3506,21 +3453,21 @@
       <selection activeCell="A41" sqref="A41:B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -3534,7 +3481,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>41</v>
@@ -3547,7 +3494,7 @@
       </c>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
@@ -3570,7 +3517,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
@@ -3600,7 +3547,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -3619,17 +3566,17 @@
         <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
         <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -3659,7 +3606,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -3684,7 +3631,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -3711,7 +3658,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -3730,7 +3677,7 @@
       </c>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -3755,7 +3702,7 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -3763,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -3776,7 +3723,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -3798,7 +3745,7 @@
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -3819,7 +3766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -3841,7 +3788,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -3862,7 +3809,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -3890,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -3918,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -3946,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -3974,7 +3921,7 @@
       </c>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -3997,7 +3944,7 @@
       </c>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -4020,7 +3967,7 @@
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -4043,7 +3990,7 @@
       </c>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
@@ -4066,7 +4013,7 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
@@ -4075,21 +4022,21 @@
         <v>150</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23" s="11">
         <f>H9</f>
         <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
@@ -4112,7 +4059,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -4133,7 +4080,7 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -4156,7 +4103,7 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -4178,7 +4125,7 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
@@ -4194,7 +4141,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
@@ -4210,7 +4157,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
@@ -4224,38 +4171,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -4264,7 +4211,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -4272,7 +4219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -4280,7 +4227,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -4288,7 +4235,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -4307,16 +4254,16 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -4330,7 +4277,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>41</v>
@@ -4342,7 +4289,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
@@ -4364,7 +4311,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
@@ -4390,7 +4337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
@@ -4413,10 +4360,10 @@
         <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -4444,7 +4391,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>28</v>
       </c>
@@ -4467,7 +4414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -4492,7 +4439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -4510,7 +4457,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -4534,7 +4481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -4542,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -4552,7 +4499,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
@@ -4573,7 +4520,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -4594,7 +4541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
@@ -4616,7 +4563,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
@@ -4637,7 +4584,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -4656,7 +4603,7 @@
         <v>81</v>
       </c>
       <c r="F15" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>33</v>
@@ -4665,7 +4612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -4693,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
@@ -4721,7 +4668,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
@@ -4739,7 +4686,7 @@
         <v>84</v>
       </c>
       <c r="F18" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>26</v>
@@ -4748,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>42</v>
       </c>
@@ -4770,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
@@ -4792,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -4814,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
@@ -4836,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
@@ -4845,20 +4792,20 @@
         <v>150</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23" s="11">
         <f>H9</f>
         <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
@@ -4880,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -4900,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>5</v>
       </c>
@@ -4922,7 +4869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
@@ -4943,7 +4890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>54</v>
       </c>
@@ -4957,7 +4904,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
@@ -4971,7 +4918,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
@@ -4985,7 +4932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -4994,7 +4941,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -5002,7 +4949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -5010,7 +4957,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
@@ -5018,7 +4965,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -5029,800 +4976,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F074AEAC-AF1C-4129-BA15-237A0D464277}">
-  <dimension ref="A1:N45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="4">
-        <f>IF(H5+1&gt;$H$12,$H$12,H5+1)</f>
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="11">
-        <f>H15</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="4">
-        <f>IF(H6+1&gt;$H$12,$H$12,H6+1)</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="11">
-        <f t="shared" ref="D3:D14" si="0">H16</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="4">
-        <f>H12/2</f>
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="4">
-        <f>IF(H7+1&gt;$H$12,$H$12,H7+1)</f>
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="4">
-        <v>10</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="4">
-        <f>H12</f>
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4">
-        <f>H12*0.75</f>
-        <v>7.5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="4">
-        <v>10</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="5">
-        <v>5</v>
-      </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4">
-        <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4">
-        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="12" t="str">
-        <f>H4</f>
-        <v>Mittel</v>
-      </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="19">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="4">
-        <f>B8+B9</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="12">
-        <f>H12</f>
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="19">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4">
-        <f>H12*15</f>
-        <v>150</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="18">
-        <f>VLOOKUP(H3,A42:B45,2,FALSE)*B41</f>
-        <v>100</v>
-      </c>
-      <c r="E17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4">
-        <v>99</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="11">
-        <f>$D$17*0.05</f>
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="19">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="4">
-        <f>B17/2</f>
-        <v>75</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="11">
-        <f>$D$17*0.2</f>
-        <v>20</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="4">
-        <f>B17/2</f>
-        <v>75</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="11">
-        <f>$D$17*0.2</f>
-        <v>20</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="4">
-        <f>B17/3</f>
-        <v>50</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="11">
-        <f>$D$17*0.35</f>
-        <v>35</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="4">
-        <f>B17/3</f>
-        <v>50</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="11">
-        <f>$D$17*0.2</f>
-        <v>20</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4">
-        <f>B17/3</f>
-        <v>50</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="11">
-        <f>H9</f>
-        <v>5</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="4">
-        <f>B17/3</f>
-        <v>50</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="11">
-        <f>H3</f>
-        <v>1</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="4">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="16">
-        <v>5</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41">
-        <f>IF(H4="groß",1.3,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>3</v>
-      </c>
-      <c r="B44">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>4</v>
-      </c>
-      <c r="B45" s="5">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Container/Data/ProfilesKonstrukte.xlsx
+++ b/Container/Data/ProfilesKonstrukte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox\OrbisAsteaDropbox\Orbis Daten Tools\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C74A9CD-9230-4E7E-829B-FFBF3B64B62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FEF6C1-0600-41FF-9491-73B1AB327972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5FCCBAED-438B-4A2B-807B-DED7E26494CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Angriffskonstruktklein" sheetId="36" r:id="rId3"/>
     <sheet name="Dampfgolem" sheetId="38" r:id="rId4"/>
     <sheet name="Artilleriekonstrukt" sheetId="35" r:id="rId5"/>
-    <sheet name="Soldat Konstrukt" sheetId="40" r:id="rId6"/>
+    <sheet name="Soldatkonstrukt" sheetId="40" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="102">
   <si>
     <t>Lucksave</t>
   </si>
@@ -271,9 +271,6 @@
     <t>Konstrukt Alvis</t>
   </si>
   <si>
-    <t>Irgendein Konstrukt</t>
-  </si>
-  <si>
     <t>Natürlich</t>
   </si>
   <si>
@@ -320,6 +317,33 @@
   </si>
   <si>
     <t>Ladungen</t>
+  </si>
+  <si>
+    <t>Angriffskonstruktklein</t>
+  </si>
+  <si>
+    <t>Dampfgolem</t>
+  </si>
+  <si>
+    <t>Artilleriekonstrukt</t>
+  </si>
+  <si>
+    <t>Soldatkonstrukt</t>
+  </si>
+  <si>
+    <t>Ein mechanisches Konstrukt zum Transport und zur Lagerung von Waren.</t>
+  </si>
+  <si>
+    <t>Ein kleines, schnelles Konstrukt für schnelle Angriffe.</t>
+  </si>
+  <si>
+    <t>Ein dampfbetriebener Golem mit großer Kraft.</t>
+  </si>
+  <si>
+    <t>Ein Konstrukt mit Kanonen für Fernangriffe.</t>
+  </si>
+  <si>
+    <t>Ein humanoides Konstrukt für den Nahkampf.</t>
   </si>
 </sst>
 </file>
@@ -598,9 +622,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -638,7 +662,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -744,7 +768,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -886,7 +910,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -897,16 +921,16 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="60.109375" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -923,54 +947,73 @@
       <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
@@ -978,36 +1021,38 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+    </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-    </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
@@ -1019,23 +1064,12 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1082,7 +1116,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>41</v>
@@ -1091,7 +1125,7 @@
         <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J1" s="4"/>
     </row>
@@ -1114,7 +1148,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" s="5"/>
     </row>
@@ -1137,7 +1171,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>72</v>
@@ -1309,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -1406,7 +1440,7 @@
         <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1425,7 +1459,7 @@
         <v>Mittel</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="19">
         <v>2</v>
@@ -1453,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="19">
         <v>2</v>
@@ -1481,7 +1515,7 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="19">
         <v>1</v>
@@ -1508,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="19">
         <v>2</v>
@@ -1622,14 +1656,14 @@
         <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="11">
         <f>H9</f>
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
@@ -1670,7 +1704,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
@@ -1691,7 +1725,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1714,7 +1748,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -1730,13 +1764,13 @@
         <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1752,7 +1786,7 @@
         <v>59</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -1853,7 +1887,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1884,7 +1918,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>41</v>
@@ -1893,7 +1927,7 @@
         <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I1" s="4"/>
     </row>
@@ -1909,14 +1943,13 @@
         <v>33</v>
       </c>
       <c r="D2" s="11">
-        <f>H15</f>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" s="5"/>
     </row>
@@ -1939,7 +1972,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>72</v>
@@ -1962,8 +1995,7 @@
         <v>29</v>
       </c>
       <c r="D4" s="11">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
@@ -2111,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -2226,7 +2258,7 @@
         <v>Mittel</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="19">
         <v>2</v>
@@ -2254,7 +2286,7 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="19">
         <v>2</v>
@@ -2282,7 +2314,7 @@
         <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="19">
         <v>1</v>
@@ -2309,7 +2341,7 @@
         <v>6.5</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="19">
         <v>2</v>
@@ -2423,14 +2455,14 @@
         <v>100</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="11">
         <f>H9</f>
         <v>15</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
@@ -2471,7 +2503,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
@@ -2492,7 +2524,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2515,7 +2547,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -2531,13 +2563,13 @@
         <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -2553,7 +2585,7 @@
         <v>59</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -2654,7 +2686,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2685,7 +2717,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>41</v>
@@ -2694,7 +2726,7 @@
         <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J1" s="4"/>
     </row>
@@ -2703,21 +2735,19 @@
         <v>35</v>
       </c>
       <c r="B2" s="4">
-        <f>IF(H5+1&gt;$H$12,$H$12,H5+1)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="11">
-        <f>H15</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J2" s="5"/>
     </row>
@@ -2733,8 +2763,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="11">
-        <f t="shared" ref="D3:D14" si="0">H16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
@@ -2761,7 +2790,7 @@
         <v>29</v>
       </c>
       <c r="D4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D14" si="0">H17</f>
         <v>0</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -2772,7 +2801,7 @@
         <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J4" s="5"/>
     </row>
@@ -2781,8 +2810,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="4">
-        <f>IF(H7+1&gt;$H$12,$H$12,H7+1)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>26</v>
@@ -2908,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -2970,7 +2998,7 @@
       </c>
       <c r="B13" s="4">
         <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -3013,7 +3041,7 @@
       </c>
       <c r="B15" s="4">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>66</v>
@@ -3023,7 +3051,7 @@
         <v>Groß</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="19">
         <v>2</v>
@@ -3051,7 +3079,7 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="19">
         <v>1</v>
@@ -3079,7 +3107,7 @@
         <v>188.5</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="19">
         <v>1</v>
@@ -3106,7 +3134,7 @@
         <v>9.4250000000000007</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="19">
         <v>1</v>
@@ -3218,14 +3246,14 @@
         <v>150</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="11">
         <f>H9</f>
         <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
@@ -3266,7 +3294,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
@@ -3287,7 +3315,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -3310,7 +3338,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -3326,13 +3354,13 @@
         <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -3348,7 +3376,7 @@
         <v>59</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -3450,7 +3478,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:B45"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3481,7 +3509,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>41</v>
@@ -3490,7 +3518,7 @@
         <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J1" s="4"/>
     </row>
@@ -3513,7 +3541,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" s="5"/>
     </row>
@@ -3536,7 +3564,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>72</v>
@@ -3566,13 +3594,13 @@
         <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
         <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J4" s="5"/>
     </row>
@@ -3588,8 +3616,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>48</v>
@@ -3710,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -3825,7 +3852,7 @@
         <v>Groß</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="19">
         <v>2</v>
@@ -3853,7 +3880,7 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="19">
         <v>1</v>
@@ -3881,7 +3908,7 @@
         <v>188.5</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="19">
         <v>1</v>
@@ -3908,7 +3935,7 @@
         <v>9.4250000000000007</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="19">
         <v>1</v>
@@ -4022,14 +4049,14 @@
         <v>150</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="11">
         <f>H9</f>
         <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
@@ -4070,7 +4097,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
@@ -4091,7 +4118,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -4114,7 +4141,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -4130,13 +4157,13 @@
         <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -4152,7 +4179,7 @@
         <v>59</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -4253,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE85F9B-C728-41A4-9A98-BEBDB1924627}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4277,7 +4304,7 @@
         <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>41</v>
@@ -4286,7 +4313,7 @@
         <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -4308,7 +4335,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -4360,7 +4387,7 @@
         <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4489,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -4600,7 +4627,7 @@
         <v>Groß</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15" s="19">
         <v>3</v>
@@ -4628,7 +4655,7 @@
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="19">
         <v>1</v>
@@ -4656,7 +4683,7 @@
         <v>188.5</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F17" s="19">
         <v>1</v>
@@ -4683,7 +4710,7 @@
         <v>9.4250000000000007</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="19">
         <v>3</v>
@@ -4792,14 +4819,14 @@
         <v>150</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="11">
         <f>H9</f>
         <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
@@ -4838,7 +4865,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
@@ -4858,7 +4885,7 @@
         <v>56</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -4880,7 +4907,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
@@ -4895,13 +4922,13 @@
         <v>54</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -4915,7 +4942,7 @@
         <v>59</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
